--- a/Statistik.xlsx
+++ b/Statistik.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Alle Dokumente\Studium\5. Semester\DER - Digitale und Ereignisdiskrete Regelung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9E3E07-5495-4B74-9BB2-ADA42CABE397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D215D914-F84F-43F5-B009-AEC3999B6C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{198767FD-7B19-448E-9870-A6A3864D039F}"/>
   </bookViews>
@@ -771,77 +771,17 @@
     <xf numFmtId="165" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -855,6 +795,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -864,13 +834,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1209,8 +1209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46AE7D0C-AF1F-4745-BAFC-3B96949B2F03}">
   <dimension ref="A1:X320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D298" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="U318" sqref="U318"/>
+    <sheetView tabSelected="1" topLeftCell="B244" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="T263" sqref="T263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1225,44 +1225,44 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="50" t="s">
+      <c r="H2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="50">
+      <c r="I2" s="30">
         <v>4</v>
       </c>
-      <c r="J2" s="52" t="s">
+      <c r="J2" s="32" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="49"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="53"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="33"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
@@ -1383,133 +1383,133 @@
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="29"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="31"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="39"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="42">
+      <c r="C10" s="26">
         <f>J5/J4</f>
         <v>0.61015866139600372</v>
       </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="43"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="27"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="42">
+      <c r="C11" s="26">
         <f>J7/J6</f>
         <v>3.2237809042480534</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="43"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="27"/>
     </row>
     <row r="12" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="57">
+      <c r="C12" s="40">
         <v>5</v>
       </c>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="58"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="41"/>
     </row>
     <row r="14" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="50" t="s">
+      <c r="E15" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="50" t="s">
+      <c r="F15" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="50" t="s">
+      <c r="G15" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="50" t="s">
+      <c r="H15" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="50">
+      <c r="I15" s="30">
         <v>4</v>
       </c>
-      <c r="J15" s="52" t="s">
+      <c r="J15" s="32" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="49"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="53"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="33"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="40">
+      <c r="C17" s="28">
         <v>92466</v>
       </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="41"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="29"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="40">
+      <c r="C18" s="28">
         <v>38387</v>
       </c>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="41"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="29"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
@@ -1600,133 +1600,133 @@
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="29"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="31"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="39"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="42">
+      <c r="C23" s="26">
         <f>C18/C17</f>
         <v>0.41514718923712501</v>
       </c>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="43"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="27"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="42">
+      <c r="C24" s="26">
         <f>J20/J19</f>
         <v>12.189084425149236</v>
       </c>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="43"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="27"/>
     </row>
     <row r="25" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="46">
+      <c r="C25" s="42">
         <v>4</v>
       </c>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="47"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="43"/>
     </row>
     <row r="27" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B28" s="48" t="s">
+      <c r="B28" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="50" t="s">
+      <c r="C28" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="50" t="s">
+      <c r="D28" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="50" t="s">
+      <c r="E28" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F28" s="50" t="s">
+      <c r="F28" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G28" s="50" t="s">
+      <c r="G28" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H28" s="50" t="s">
+      <c r="H28" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I28" s="50">
+      <c r="I28" s="30">
         <v>4</v>
       </c>
-      <c r="J28" s="52" t="s">
+      <c r="J28" s="32" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B29" s="49"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="53"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="33"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="40">
+      <c r="C30" s="28">
         <v>92186</v>
       </c>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="41"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="29"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="40">
+      <c r="C31" s="28">
         <v>23414</v>
       </c>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="41"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="29"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
@@ -1818,133 +1818,133 @@
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B35" s="29"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="31"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="39"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="42">
+      <c r="C36" s="26">
         <f>C31/C30</f>
         <v>0.25398650554314106</v>
       </c>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="43"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="27"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="42">
+      <c r="C37" s="26">
         <f>J33/J32</f>
         <v>19.864683792779722</v>
       </c>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="43"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="27"/>
     </row>
     <row r="38" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="46">
+      <c r="C38" s="42">
         <v>3</v>
       </c>
-      <c r="D38" s="46"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="46"/>
-      <c r="I38" s="46"/>
-      <c r="J38" s="47"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="43"/>
     </row>
     <row r="40" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B41" s="48" t="s">
+      <c r="B41" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="50" t="s">
+      <c r="C41" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D41" s="50" t="s">
+      <c r="D41" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E41" s="50" t="s">
+      <c r="E41" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F41" s="50" t="s">
+      <c r="F41" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G41" s="50" t="s">
+      <c r="G41" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H41" s="50" t="s">
+      <c r="H41" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I41" s="50">
+      <c r="I41" s="30">
         <v>4</v>
       </c>
-      <c r="J41" s="52" t="s">
+      <c r="J41" s="32" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B42" s="49"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="51"/>
-      <c r="I42" s="51"/>
-      <c r="J42" s="53"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="33"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B43" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C43" s="40">
+      <c r="C43" s="28">
         <v>91964</v>
       </c>
-      <c r="D43" s="40"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="40"/>
-      <c r="G43" s="40"/>
-      <c r="H43" s="40"/>
-      <c r="I43" s="40"/>
-      <c r="J43" s="41"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="29"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C44" s="40">
+      <c r="C44" s="28">
         <v>14883</v>
       </c>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="40"/>
-      <c r="I44" s="40"/>
-      <c r="J44" s="41"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="29"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B45" s="2" t="s">
@@ -2036,133 +2036,133 @@
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B48" s="29"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="31"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="38"/>
+      <c r="J48" s="39"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B49" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C49" s="42">
+      <c r="C49" s="26">
         <f>C44/C43</f>
         <v>0.16183506589535035</v>
       </c>
-      <c r="D49" s="42"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="42"/>
-      <c r="H49" s="42"/>
-      <c r="I49" s="42"/>
-      <c r="J49" s="43"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="27"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B50" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C50" s="42">
+      <c r="C50" s="26">
         <f>J46/J45</f>
         <v>30.932827298985693</v>
       </c>
-      <c r="D50" s="42"/>
-      <c r="E50" s="42"/>
-      <c r="F50" s="42"/>
-      <c r="G50" s="42"/>
-      <c r="H50" s="42"/>
-      <c r="I50" s="42"/>
-      <c r="J50" s="43"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="27"/>
     </row>
     <row r="51" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="46">
+      <c r="C51" s="42">
         <v>2</v>
       </c>
-      <c r="D51" s="46"/>
-      <c r="E51" s="46"/>
-      <c r="F51" s="46"/>
-      <c r="G51" s="46"/>
-      <c r="H51" s="46"/>
-      <c r="I51" s="46"/>
-      <c r="J51" s="47"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="43"/>
     </row>
     <row r="53" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="54" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B54" s="48" t="s">
+      <c r="B54" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C54" s="50" t="s">
+      <c r="C54" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D54" s="50" t="s">
+      <c r="D54" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E54" s="50" t="s">
+      <c r="E54" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F54" s="50" t="s">
+      <c r="F54" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G54" s="50" t="s">
+      <c r="G54" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H54" s="50" t="s">
+      <c r="H54" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I54" s="50">
+      <c r="I54" s="30">
         <v>4</v>
       </c>
-      <c r="J54" s="52" t="s">
+      <c r="J54" s="32" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B55" s="49"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="51"/>
-      <c r="E55" s="51"/>
-      <c r="F55" s="51"/>
-      <c r="G55" s="51"/>
-      <c r="H55" s="51"/>
-      <c r="I55" s="51"/>
-      <c r="J55" s="53"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="31"/>
+      <c r="J55" s="33"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B56" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C56" s="40">
+      <c r="C56" s="28">
         <v>92028</v>
       </c>
-      <c r="D56" s="40"/>
-      <c r="E56" s="40"/>
-      <c r="F56" s="40"/>
-      <c r="G56" s="40"/>
-      <c r="H56" s="40"/>
-      <c r="I56" s="40"/>
-      <c r="J56" s="41"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="29"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B57" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C57" s="40">
+      <c r="C57" s="28">
         <v>1316</v>
       </c>
-      <c r="D57" s="40"/>
-      <c r="E57" s="40"/>
-      <c r="F57" s="40"/>
-      <c r="G57" s="40"/>
-      <c r="H57" s="40"/>
-      <c r="I57" s="40"/>
-      <c r="J57" s="41"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="29"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B58" s="2" t="s">
@@ -2255,62 +2255,62 @@
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B61" s="29"/>
-      <c r="C61" s="30"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="30"/>
-      <c r="I61" s="30"/>
-      <c r="J61" s="31"/>
+      <c r="B61" s="37"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="38"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="38"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="38"/>
+      <c r="J61" s="39"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B62" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C62" s="42">
+      <c r="C62" s="26">
         <f>C57/C56</f>
         <v>1.4299995653496761E-2</v>
       </c>
-      <c r="D62" s="42"/>
-      <c r="E62" s="42"/>
-      <c r="F62" s="42"/>
-      <c r="G62" s="42"/>
-      <c r="H62" s="42"/>
-      <c r="I62" s="42"/>
-      <c r="J62" s="43"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="26"/>
+      <c r="J62" s="27"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B63" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C63" s="42">
+      <c r="C63" s="26">
         <f>J59/J58</f>
         <v>347.36398176291794</v>
       </c>
-      <c r="D63" s="42"/>
-      <c r="E63" s="42"/>
-      <c r="F63" s="42"/>
-      <c r="G63" s="42"/>
-      <c r="H63" s="42"/>
-      <c r="I63" s="42"/>
-      <c r="J63" s="43"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="26"/>
+      <c r="H63" s="26"/>
+      <c r="I63" s="26"/>
+      <c r="J63" s="27"/>
     </row>
     <row r="64" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B64" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C64" s="46">
+      <c r="C64" s="42">
         <v>1</v>
       </c>
-      <c r="D64" s="46"/>
-      <c r="E64" s="46"/>
-      <c r="F64" s="46"/>
-      <c r="G64" s="46"/>
-      <c r="H64" s="46"/>
-      <c r="I64" s="46"/>
-      <c r="J64" s="47"/>
+      <c r="D64" s="42"/>
+      <c r="E64" s="42"/>
+      <c r="F64" s="42"/>
+      <c r="G64" s="42"/>
+      <c r="H64" s="42"/>
+      <c r="I64" s="42"/>
+      <c r="J64" s="43"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C65" s="5"/>
@@ -2339,74 +2339,74 @@
     </row>
     <row r="67" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B68" s="48" t="s">
+      <c r="B68" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C68" s="50" t="s">
+      <c r="C68" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D68" s="50" t="s">
+      <c r="D68" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E68" s="50" t="s">
+      <c r="E68" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F68" s="50" t="s">
+      <c r="F68" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G68" s="50" t="s">
+      <c r="G68" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H68" s="50" t="s">
+      <c r="H68" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I68" s="50">
+      <c r="I68" s="30">
         <v>4</v>
       </c>
-      <c r="J68" s="52" t="s">
+      <c r="J68" s="32" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B69" s="49"/>
-      <c r="C69" s="51"/>
-      <c r="D69" s="51"/>
-      <c r="E69" s="51"/>
-      <c r="F69" s="51"/>
-      <c r="G69" s="51"/>
-      <c r="H69" s="51"/>
-      <c r="I69" s="51"/>
-      <c r="J69" s="53"/>
+      <c r="B69" s="36"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="33"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B70" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C70" s="54">
+      <c r="C70" s="44">
         <v>92028</v>
       </c>
-      <c r="D70" s="55"/>
-      <c r="E70" s="55"/>
-      <c r="F70" s="55"/>
-      <c r="G70" s="55"/>
-      <c r="H70" s="55"/>
-      <c r="I70" s="55"/>
-      <c r="J70" s="56"/>
+      <c r="D70" s="45"/>
+      <c r="E70" s="45"/>
+      <c r="F70" s="45"/>
+      <c r="G70" s="45"/>
+      <c r="H70" s="45"/>
+      <c r="I70" s="45"/>
+      <c r="J70" s="46"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B71" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C71" s="54">
+      <c r="C71" s="44">
         <v>1316</v>
       </c>
-      <c r="D71" s="55"/>
-      <c r="E71" s="55"/>
-      <c r="F71" s="55"/>
-      <c r="G71" s="55"/>
-      <c r="H71" s="55"/>
-      <c r="I71" s="55"/>
-      <c r="J71" s="56"/>
+      <c r="D71" s="45"/>
+      <c r="E71" s="45"/>
+      <c r="F71" s="45"/>
+      <c r="G71" s="45"/>
+      <c r="H71" s="45"/>
+      <c r="I71" s="45"/>
+      <c r="J71" s="46"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B72" s="2" t="s">
@@ -2499,133 +2499,133 @@
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B75" s="29"/>
-      <c r="C75" s="30"/>
-      <c r="D75" s="30"/>
-      <c r="E75" s="30"/>
-      <c r="F75" s="30"/>
-      <c r="G75" s="30"/>
-      <c r="H75" s="30"/>
-      <c r="I75" s="30"/>
-      <c r="J75" s="31"/>
+      <c r="B75" s="37"/>
+      <c r="C75" s="38"/>
+      <c r="D75" s="38"/>
+      <c r="E75" s="38"/>
+      <c r="F75" s="38"/>
+      <c r="G75" s="38"/>
+      <c r="H75" s="38"/>
+      <c r="I75" s="38"/>
+      <c r="J75" s="39"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B76" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C76" s="42">
+      <c r="C76" s="26">
         <f>C71/C70</f>
         <v>1.4299995653496761E-2</v>
       </c>
-      <c r="D76" s="42"/>
-      <c r="E76" s="42"/>
-      <c r="F76" s="42"/>
-      <c r="G76" s="42"/>
-      <c r="H76" s="42"/>
-      <c r="I76" s="42"/>
-      <c r="J76" s="43"/>
+      <c r="D76" s="26"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="26"/>
+      <c r="G76" s="26"/>
+      <c r="H76" s="26"/>
+      <c r="I76" s="26"/>
+      <c r="J76" s="27"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B77" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="42">
+      <c r="C77" s="26">
         <f>J73/J72</f>
         <v>48.789583333333333</v>
       </c>
-      <c r="D77" s="42"/>
-      <c r="E77" s="42"/>
-      <c r="F77" s="42"/>
-      <c r="G77" s="42"/>
-      <c r="H77" s="42"/>
-      <c r="I77" s="42"/>
-      <c r="J77" s="43"/>
+      <c r="D77" s="26"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="26"/>
+      <c r="G77" s="26"/>
+      <c r="H77" s="26"/>
+      <c r="I77" s="26"/>
+      <c r="J77" s="27"/>
     </row>
     <row r="78" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B78" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C78" s="57">
+      <c r="C78" s="40">
         <v>1</v>
       </c>
-      <c r="D78" s="57"/>
-      <c r="E78" s="57"/>
-      <c r="F78" s="57"/>
-      <c r="G78" s="57"/>
-      <c r="H78" s="57"/>
-      <c r="I78" s="57"/>
-      <c r="J78" s="58"/>
+      <c r="D78" s="40"/>
+      <c r="E78" s="40"/>
+      <c r="F78" s="40"/>
+      <c r="G78" s="40"/>
+      <c r="H78" s="40"/>
+      <c r="I78" s="40"/>
+      <c r="J78" s="41"/>
     </row>
     <row r="80" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="81" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B81" s="48" t="s">
+      <c r="B81" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C81" s="50" t="s">
+      <c r="C81" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D81" s="50" t="s">
+      <c r="D81" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E81" s="50" t="s">
+      <c r="E81" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F81" s="50" t="s">
+      <c r="F81" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G81" s="50" t="s">
+      <c r="G81" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H81" s="50" t="s">
+      <c r="H81" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I81" s="50">
+      <c r="I81" s="30">
         <v>4</v>
       </c>
-      <c r="J81" s="52" t="s">
+      <c r="J81" s="32" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B82" s="49"/>
-      <c r="C82" s="51"/>
-      <c r="D82" s="51"/>
-      <c r="E82" s="51"/>
-      <c r="F82" s="51"/>
-      <c r="G82" s="51"/>
-      <c r="H82" s="51"/>
-      <c r="I82" s="51"/>
-      <c r="J82" s="53"/>
+      <c r="B82" s="36"/>
+      <c r="C82" s="31"/>
+      <c r="D82" s="31"/>
+      <c r="E82" s="31"/>
+      <c r="F82" s="31"/>
+      <c r="G82" s="31"/>
+      <c r="H82" s="31"/>
+      <c r="I82" s="31"/>
+      <c r="J82" s="33"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B83" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C83" s="40">
+      <c r="C83" s="28">
         <v>91964</v>
       </c>
-      <c r="D83" s="40"/>
-      <c r="E83" s="40"/>
-      <c r="F83" s="40"/>
-      <c r="G83" s="40"/>
-      <c r="H83" s="40"/>
-      <c r="I83" s="40"/>
-      <c r="J83" s="41"/>
+      <c r="D83" s="28"/>
+      <c r="E83" s="28"/>
+      <c r="F83" s="28"/>
+      <c r="G83" s="28"/>
+      <c r="H83" s="28"/>
+      <c r="I83" s="28"/>
+      <c r="J83" s="29"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B84" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C84" s="40">
+      <c r="C84" s="28">
         <v>14883</v>
       </c>
-      <c r="D84" s="40"/>
-      <c r="E84" s="40"/>
-      <c r="F84" s="40"/>
-      <c r="G84" s="40"/>
-      <c r="H84" s="40"/>
-      <c r="I84" s="40"/>
-      <c r="J84" s="41"/>
+      <c r="D84" s="28"/>
+      <c r="E84" s="28"/>
+      <c r="F84" s="28"/>
+      <c r="G84" s="28"/>
+      <c r="H84" s="28"/>
+      <c r="I84" s="28"/>
+      <c r="J84" s="29"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B85" s="2" t="s">
@@ -2718,133 +2718,133 @@
       </c>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B88" s="29"/>
-      <c r="C88" s="30"/>
-      <c r="D88" s="30"/>
-      <c r="E88" s="30"/>
-      <c r="F88" s="30"/>
-      <c r="G88" s="30"/>
-      <c r="H88" s="30"/>
-      <c r="I88" s="30"/>
-      <c r="J88" s="31"/>
+      <c r="B88" s="37"/>
+      <c r="C88" s="38"/>
+      <c r="D88" s="38"/>
+      <c r="E88" s="38"/>
+      <c r="F88" s="38"/>
+      <c r="G88" s="38"/>
+      <c r="H88" s="38"/>
+      <c r="I88" s="38"/>
+      <c r="J88" s="39"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B89" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C89" s="42">
+      <c r="C89" s="26">
         <f>C84/C83</f>
         <v>0.16183506589535035</v>
       </c>
-      <c r="D89" s="42"/>
-      <c r="E89" s="42"/>
-      <c r="F89" s="42"/>
-      <c r="G89" s="42"/>
-      <c r="H89" s="42"/>
-      <c r="I89" s="42"/>
-      <c r="J89" s="43"/>
+      <c r="D89" s="26"/>
+      <c r="E89" s="26"/>
+      <c r="F89" s="26"/>
+      <c r="G89" s="26"/>
+      <c r="H89" s="26"/>
+      <c r="I89" s="26"/>
+      <c r="J89" s="27"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B90" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C90" s="42">
+      <c r="C90" s="26">
         <f>J86/J85</f>
         <v>19.189521134121645</v>
       </c>
-      <c r="D90" s="42"/>
-      <c r="E90" s="42"/>
-      <c r="F90" s="42"/>
-      <c r="G90" s="42"/>
-      <c r="H90" s="42"/>
-      <c r="I90" s="42"/>
-      <c r="J90" s="43"/>
+      <c r="D90" s="26"/>
+      <c r="E90" s="26"/>
+      <c r="F90" s="26"/>
+      <c r="G90" s="26"/>
+      <c r="H90" s="26"/>
+      <c r="I90" s="26"/>
+      <c r="J90" s="27"/>
     </row>
     <row r="91" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B91" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C91" s="46">
+      <c r="C91" s="42">
         <v>2</v>
       </c>
-      <c r="D91" s="46"/>
-      <c r="E91" s="46"/>
-      <c r="F91" s="46"/>
-      <c r="G91" s="46"/>
-      <c r="H91" s="46"/>
-      <c r="I91" s="46"/>
-      <c r="J91" s="47"/>
+      <c r="D91" s="42"/>
+      <c r="E91" s="42"/>
+      <c r="F91" s="42"/>
+      <c r="G91" s="42"/>
+      <c r="H91" s="42"/>
+      <c r="I91" s="42"/>
+      <c r="J91" s="43"/>
     </row>
     <row r="93" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="94" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B94" s="48" t="s">
+      <c r="B94" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C94" s="50" t="s">
+      <c r="C94" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D94" s="50" t="s">
+      <c r="D94" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E94" s="50" t="s">
+      <c r="E94" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F94" s="50" t="s">
+      <c r="F94" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G94" s="50" t="s">
+      <c r="G94" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H94" s="50" t="s">
+      <c r="H94" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I94" s="50">
+      <c r="I94" s="30">
         <v>4</v>
       </c>
-      <c r="J94" s="52" t="s">
+      <c r="J94" s="32" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B95" s="49"/>
-      <c r="C95" s="51"/>
-      <c r="D95" s="51"/>
-      <c r="E95" s="51"/>
-      <c r="F95" s="51"/>
-      <c r="G95" s="51"/>
-      <c r="H95" s="51"/>
-      <c r="I95" s="51"/>
-      <c r="J95" s="53"/>
+      <c r="B95" s="36"/>
+      <c r="C95" s="31"/>
+      <c r="D95" s="31"/>
+      <c r="E95" s="31"/>
+      <c r="F95" s="31"/>
+      <c r="G95" s="31"/>
+      <c r="H95" s="31"/>
+      <c r="I95" s="31"/>
+      <c r="J95" s="33"/>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B96" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C96" s="40">
+      <c r="C96" s="28">
         <v>92186</v>
       </c>
-      <c r="D96" s="40"/>
-      <c r="E96" s="40"/>
-      <c r="F96" s="40"/>
-      <c r="G96" s="40"/>
-      <c r="H96" s="40"/>
-      <c r="I96" s="40"/>
-      <c r="J96" s="41"/>
+      <c r="D96" s="28"/>
+      <c r="E96" s="28"/>
+      <c r="F96" s="28"/>
+      <c r="G96" s="28"/>
+      <c r="H96" s="28"/>
+      <c r="I96" s="28"/>
+      <c r="J96" s="29"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B97" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C97" s="40">
+      <c r="C97" s="28">
         <v>23413</v>
       </c>
-      <c r="D97" s="40"/>
-      <c r="E97" s="40"/>
-      <c r="F97" s="40"/>
-      <c r="G97" s="40"/>
-      <c r="H97" s="40"/>
-      <c r="I97" s="40"/>
-      <c r="J97" s="41"/>
+      <c r="D97" s="28"/>
+      <c r="E97" s="28"/>
+      <c r="F97" s="28"/>
+      <c r="G97" s="28"/>
+      <c r="H97" s="28"/>
+      <c r="I97" s="28"/>
+      <c r="J97" s="29"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B98" s="2" t="s">
@@ -2937,133 +2937,133 @@
       </c>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B101" s="29"/>
-      <c r="C101" s="30"/>
-      <c r="D101" s="30"/>
-      <c r="E101" s="30"/>
-      <c r="F101" s="30"/>
-      <c r="G101" s="30"/>
-      <c r="H101" s="30"/>
-      <c r="I101" s="30"/>
-      <c r="J101" s="31"/>
+      <c r="B101" s="37"/>
+      <c r="C101" s="38"/>
+      <c r="D101" s="38"/>
+      <c r="E101" s="38"/>
+      <c r="F101" s="38"/>
+      <c r="G101" s="38"/>
+      <c r="H101" s="38"/>
+      <c r="I101" s="38"/>
+      <c r="J101" s="39"/>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B102" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C102" s="42">
+      <c r="C102" s="26">
         <f>C97/C96</f>
         <v>0.25397565790901006</v>
       </c>
-      <c r="D102" s="42"/>
-      <c r="E102" s="42"/>
-      <c r="F102" s="42"/>
-      <c r="G102" s="42"/>
-      <c r="H102" s="42"/>
-      <c r="I102" s="42"/>
-      <c r="J102" s="43"/>
+      <c r="D102" s="26"/>
+      <c r="E102" s="26"/>
+      <c r="F102" s="26"/>
+      <c r="G102" s="26"/>
+      <c r="H102" s="26"/>
+      <c r="I102" s="26"/>
+      <c r="J102" s="27"/>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B103" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C103" s="42">
+      <c r="C103" s="26">
         <f>J99/J98</f>
         <v>16.181064356435645</v>
       </c>
-      <c r="D103" s="42"/>
-      <c r="E103" s="42"/>
-      <c r="F103" s="42"/>
-      <c r="G103" s="42"/>
-      <c r="H103" s="42"/>
-      <c r="I103" s="42"/>
-      <c r="J103" s="43"/>
+      <c r="D103" s="26"/>
+      <c r="E103" s="26"/>
+      <c r="F103" s="26"/>
+      <c r="G103" s="26"/>
+      <c r="H103" s="26"/>
+      <c r="I103" s="26"/>
+      <c r="J103" s="27"/>
     </row>
     <row r="104" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B104" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C104" s="46">
+      <c r="C104" s="42">
         <v>3</v>
       </c>
-      <c r="D104" s="46"/>
-      <c r="E104" s="46"/>
-      <c r="F104" s="46"/>
-      <c r="G104" s="46"/>
-      <c r="H104" s="46"/>
-      <c r="I104" s="46"/>
-      <c r="J104" s="47"/>
+      <c r="D104" s="42"/>
+      <c r="E104" s="42"/>
+      <c r="F104" s="42"/>
+      <c r="G104" s="42"/>
+      <c r="H104" s="42"/>
+      <c r="I104" s="42"/>
+      <c r="J104" s="43"/>
     </row>
     <row r="106" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="107" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B107" s="48" t="s">
+      <c r="B107" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C107" s="50" t="s">
+      <c r="C107" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D107" s="50" t="s">
+      <c r="D107" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E107" s="50" t="s">
+      <c r="E107" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F107" s="50" t="s">
+      <c r="F107" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G107" s="50" t="s">
+      <c r="G107" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H107" s="50" t="s">
+      <c r="H107" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I107" s="50">
+      <c r="I107" s="30">
         <v>4</v>
       </c>
-      <c r="J107" s="52" t="s">
+      <c r="J107" s="32" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B108" s="49"/>
-      <c r="C108" s="51"/>
-      <c r="D108" s="51"/>
-      <c r="E108" s="51"/>
-      <c r="F108" s="51"/>
-      <c r="G108" s="51"/>
-      <c r="H108" s="51"/>
-      <c r="I108" s="51"/>
-      <c r="J108" s="53"/>
+      <c r="B108" s="36"/>
+      <c r="C108" s="31"/>
+      <c r="D108" s="31"/>
+      <c r="E108" s="31"/>
+      <c r="F108" s="31"/>
+      <c r="G108" s="31"/>
+      <c r="H108" s="31"/>
+      <c r="I108" s="31"/>
+      <c r="J108" s="33"/>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B109" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C109" s="40">
+      <c r="C109" s="28">
         <v>92466</v>
       </c>
-      <c r="D109" s="40"/>
-      <c r="E109" s="40"/>
-      <c r="F109" s="40"/>
-      <c r="G109" s="40"/>
-      <c r="H109" s="40"/>
-      <c r="I109" s="40"/>
-      <c r="J109" s="41"/>
+      <c r="D109" s="28"/>
+      <c r="E109" s="28"/>
+      <c r="F109" s="28"/>
+      <c r="G109" s="28"/>
+      <c r="H109" s="28"/>
+      <c r="I109" s="28"/>
+      <c r="J109" s="29"/>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B110" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C110" s="40">
+      <c r="C110" s="28">
         <v>38387</v>
       </c>
-      <c r="D110" s="40"/>
-      <c r="E110" s="40"/>
-      <c r="F110" s="40"/>
-      <c r="G110" s="40"/>
-      <c r="H110" s="40"/>
-      <c r="I110" s="40"/>
-      <c r="J110" s="41"/>
+      <c r="D110" s="28"/>
+      <c r="E110" s="28"/>
+      <c r="F110" s="28"/>
+      <c r="G110" s="28"/>
+      <c r="H110" s="28"/>
+      <c r="I110" s="28"/>
+      <c r="J110" s="29"/>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B111" s="2" t="s">
@@ -3156,133 +3156,133 @@
       </c>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B114" s="29"/>
-      <c r="C114" s="30"/>
-      <c r="D114" s="30"/>
-      <c r="E114" s="30"/>
-      <c r="F114" s="30"/>
-      <c r="G114" s="30"/>
-      <c r="H114" s="30"/>
-      <c r="I114" s="30"/>
-      <c r="J114" s="31"/>
+      <c r="B114" s="37"/>
+      <c r="C114" s="38"/>
+      <c r="D114" s="38"/>
+      <c r="E114" s="38"/>
+      <c r="F114" s="38"/>
+      <c r="G114" s="38"/>
+      <c r="H114" s="38"/>
+      <c r="I114" s="38"/>
+      <c r="J114" s="39"/>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B115" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C115" s="42">
+      <c r="C115" s="26">
         <f>C110/C109</f>
         <v>0.41514718923712501</v>
       </c>
-      <c r="D115" s="42"/>
-      <c r="E115" s="42"/>
-      <c r="F115" s="42"/>
-      <c r="G115" s="42"/>
-      <c r="H115" s="42"/>
-      <c r="I115" s="42"/>
-      <c r="J115" s="43"/>
+      <c r="D115" s="26"/>
+      <c r="E115" s="26"/>
+      <c r="F115" s="26"/>
+      <c r="G115" s="26"/>
+      <c r="H115" s="26"/>
+      <c r="I115" s="26"/>
+      <c r="J115" s="27"/>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B116" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C116" s="42">
+      <c r="C116" s="26">
         <f>J112/J111</f>
         <v>11.509298006685651</v>
       </c>
-      <c r="D116" s="42"/>
-      <c r="E116" s="42"/>
-      <c r="F116" s="42"/>
-      <c r="G116" s="42"/>
-      <c r="H116" s="42"/>
-      <c r="I116" s="42"/>
-      <c r="J116" s="43"/>
+      <c r="D116" s="26"/>
+      <c r="E116" s="26"/>
+      <c r="F116" s="26"/>
+      <c r="G116" s="26"/>
+      <c r="H116" s="26"/>
+      <c r="I116" s="26"/>
+      <c r="J116" s="27"/>
     </row>
     <row r="117" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B117" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C117" s="46">
+      <c r="C117" s="42">
         <v>4</v>
       </c>
-      <c r="D117" s="46"/>
-      <c r="E117" s="46"/>
-      <c r="F117" s="46"/>
-      <c r="G117" s="46"/>
-      <c r="H117" s="46"/>
-      <c r="I117" s="46"/>
-      <c r="J117" s="47"/>
+      <c r="D117" s="42"/>
+      <c r="E117" s="42"/>
+      <c r="F117" s="42"/>
+      <c r="G117" s="42"/>
+      <c r="H117" s="42"/>
+      <c r="I117" s="42"/>
+      <c r="J117" s="43"/>
     </row>
     <row r="119" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="120" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B120" s="48" t="s">
+      <c r="B120" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C120" s="50" t="s">
+      <c r="C120" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D120" s="50" t="s">
+      <c r="D120" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E120" s="50" t="s">
+      <c r="E120" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F120" s="50" t="s">
+      <c r="F120" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G120" s="50" t="s">
+      <c r="G120" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H120" s="50" t="s">
+      <c r="H120" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I120" s="50">
+      <c r="I120" s="30">
         <v>4</v>
       </c>
-      <c r="J120" s="52" t="s">
+      <c r="J120" s="32" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B121" s="49"/>
-      <c r="C121" s="51"/>
-      <c r="D121" s="51"/>
-      <c r="E121" s="51"/>
-      <c r="F121" s="51"/>
-      <c r="G121" s="51"/>
-      <c r="H121" s="51"/>
-      <c r="I121" s="51"/>
-      <c r="J121" s="53"/>
+      <c r="B121" s="36"/>
+      <c r="C121" s="31"/>
+      <c r="D121" s="31"/>
+      <c r="E121" s="31"/>
+      <c r="F121" s="31"/>
+      <c r="G121" s="31"/>
+      <c r="H121" s="31"/>
+      <c r="I121" s="31"/>
+      <c r="J121" s="33"/>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B122" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C122" s="40">
+      <c r="C122" s="28">
         <v>92335</v>
       </c>
-      <c r="D122" s="40"/>
-      <c r="E122" s="40"/>
-      <c r="F122" s="40"/>
-      <c r="G122" s="40"/>
-      <c r="H122" s="40"/>
-      <c r="I122" s="40"/>
-      <c r="J122" s="41"/>
+      <c r="D122" s="28"/>
+      <c r="E122" s="28"/>
+      <c r="F122" s="28"/>
+      <c r="G122" s="28"/>
+      <c r="H122" s="28"/>
+      <c r="I122" s="28"/>
+      <c r="J122" s="29"/>
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B123" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C123" s="40">
+      <c r="C123" s="28">
         <v>56339</v>
       </c>
-      <c r="D123" s="40"/>
-      <c r="E123" s="40"/>
-      <c r="F123" s="40"/>
-      <c r="G123" s="40"/>
-      <c r="H123" s="40"/>
-      <c r="I123" s="40"/>
-      <c r="J123" s="41"/>
+      <c r="D123" s="28"/>
+      <c r="E123" s="28"/>
+      <c r="F123" s="28"/>
+      <c r="G123" s="28"/>
+      <c r="H123" s="28"/>
+      <c r="I123" s="28"/>
+      <c r="J123" s="29"/>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B124" s="2" t="s">
@@ -3375,148 +3375,148 @@
       </c>
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B127" s="29"/>
-      <c r="C127" s="30"/>
-      <c r="D127" s="30"/>
-      <c r="E127" s="30"/>
-      <c r="F127" s="30"/>
-      <c r="G127" s="30"/>
-      <c r="H127" s="30"/>
-      <c r="I127" s="30"/>
-      <c r="J127" s="31"/>
+      <c r="B127" s="37"/>
+      <c r="C127" s="38"/>
+      <c r="D127" s="38"/>
+      <c r="E127" s="38"/>
+      <c r="F127" s="38"/>
+      <c r="G127" s="38"/>
+      <c r="H127" s="38"/>
+      <c r="I127" s="38"/>
+      <c r="J127" s="39"/>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B128" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C128" s="42">
+      <c r="C128" s="26">
         <f>C123/C122</f>
         <v>0.61015866139600372</v>
       </c>
-      <c r="D128" s="42"/>
-      <c r="E128" s="42"/>
-      <c r="F128" s="42"/>
-      <c r="G128" s="42"/>
-      <c r="H128" s="42"/>
-      <c r="I128" s="42"/>
-      <c r="J128" s="43"/>
+      <c r="D128" s="26"/>
+      <c r="E128" s="26"/>
+      <c r="F128" s="26"/>
+      <c r="G128" s="26"/>
+      <c r="H128" s="26"/>
+      <c r="I128" s="26"/>
+      <c r="J128" s="27"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B129" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C129" s="42">
+      <c r="C129" s="26">
         <f>J125/J124</f>
         <v>2.8538107157108135</v>
       </c>
-      <c r="D129" s="42"/>
-      <c r="E129" s="42"/>
-      <c r="F129" s="42"/>
-      <c r="G129" s="42"/>
-      <c r="H129" s="42"/>
-      <c r="I129" s="42"/>
-      <c r="J129" s="43"/>
+      <c r="D129" s="26"/>
+      <c r="E129" s="26"/>
+      <c r="F129" s="26"/>
+      <c r="G129" s="26"/>
+      <c r="H129" s="26"/>
+      <c r="I129" s="26"/>
+      <c r="J129" s="27"/>
     </row>
     <row r="130" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B130" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C130" s="46">
+      <c r="C130" s="42">
         <v>5</v>
       </c>
-      <c r="D130" s="46"/>
-      <c r="E130" s="46"/>
-      <c r="F130" s="46"/>
-      <c r="G130" s="46"/>
-      <c r="H130" s="46"/>
-      <c r="I130" s="46"/>
-      <c r="J130" s="47"/>
+      <c r="D130" s="42"/>
+      <c r="E130" s="42"/>
+      <c r="F130" s="42"/>
+      <c r="G130" s="42"/>
+      <c r="H130" s="42"/>
+      <c r="I130" s="42"/>
+      <c r="J130" s="43"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A132" s="59" t="s">
+      <c r="A132" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B132" s="59"/>
-      <c r="C132" s="59"/>
-      <c r="D132" s="59"/>
-      <c r="E132" s="59"/>
-      <c r="F132" s="59"/>
-      <c r="G132" s="59"/>
-      <c r="H132" s="59"/>
-      <c r="I132" s="59"/>
-      <c r="J132" s="59"/>
-      <c r="K132" s="59"/>
+      <c r="B132" s="34"/>
+      <c r="C132" s="34"/>
+      <c r="D132" s="34"/>
+      <c r="E132" s="34"/>
+      <c r="F132" s="34"/>
+      <c r="G132" s="34"/>
+      <c r="H132" s="34"/>
+      <c r="I132" s="34"/>
+      <c r="J132" s="34"/>
+      <c r="K132" s="34"/>
     </row>
     <row r="133" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B134" s="48" t="s">
+      <c r="B134" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C134" s="50" t="s">
+      <c r="C134" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D134" s="50" t="s">
+      <c r="D134" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E134" s="50" t="s">
+      <c r="E134" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F134" s="50" t="s">
+      <c r="F134" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G134" s="50" t="s">
+      <c r="G134" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H134" s="50" t="s">
+      <c r="H134" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I134" s="50">
+      <c r="I134" s="30">
         <v>4</v>
       </c>
-      <c r="J134" s="52" t="s">
+      <c r="J134" s="32" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B135" s="49"/>
-      <c r="C135" s="51"/>
-      <c r="D135" s="51"/>
-      <c r="E135" s="51"/>
-      <c r="F135" s="51"/>
-      <c r="G135" s="51"/>
-      <c r="H135" s="51"/>
-      <c r="I135" s="51"/>
-      <c r="J135" s="53"/>
+      <c r="B135" s="36"/>
+      <c r="C135" s="31"/>
+      <c r="D135" s="31"/>
+      <c r="E135" s="31"/>
+      <c r="F135" s="31"/>
+      <c r="G135" s="31"/>
+      <c r="H135" s="31"/>
+      <c r="I135" s="31"/>
+      <c r="J135" s="33"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B136" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C136" s="54">
+      <c r="C136" s="44">
         <v>92028</v>
       </c>
-      <c r="D136" s="55"/>
-      <c r="E136" s="55"/>
-      <c r="F136" s="55"/>
-      <c r="G136" s="55"/>
-      <c r="H136" s="55"/>
-      <c r="I136" s="55"/>
-      <c r="J136" s="56"/>
+      <c r="D136" s="45"/>
+      <c r="E136" s="45"/>
+      <c r="F136" s="45"/>
+      <c r="G136" s="45"/>
+      <c r="H136" s="45"/>
+      <c r="I136" s="45"/>
+      <c r="J136" s="46"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B137" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C137" s="54">
+      <c r="C137" s="44">
         <v>1316</v>
       </c>
-      <c r="D137" s="55"/>
-      <c r="E137" s="55"/>
-      <c r="F137" s="55"/>
-      <c r="G137" s="55"/>
-      <c r="H137" s="55"/>
-      <c r="I137" s="55"/>
-      <c r="J137" s="56"/>
+      <c r="D137" s="45"/>
+      <c r="E137" s="45"/>
+      <c r="F137" s="45"/>
+      <c r="G137" s="45"/>
+      <c r="H137" s="45"/>
+      <c r="I137" s="45"/>
+      <c r="J137" s="46"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B138" s="2" t="s">
@@ -3609,133 +3609,133 @@
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B141" s="29"/>
-      <c r="C141" s="30"/>
-      <c r="D141" s="30"/>
-      <c r="E141" s="30"/>
-      <c r="F141" s="30"/>
-      <c r="G141" s="30"/>
-      <c r="H141" s="30"/>
-      <c r="I141" s="30"/>
-      <c r="J141" s="31"/>
+      <c r="B141" s="37"/>
+      <c r="C141" s="38"/>
+      <c r="D141" s="38"/>
+      <c r="E141" s="38"/>
+      <c r="F141" s="38"/>
+      <c r="G141" s="38"/>
+      <c r="H141" s="38"/>
+      <c r="I141" s="38"/>
+      <c r="J141" s="39"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B142" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C142" s="42">
+      <c r="C142" s="26">
         <f>C137/C136</f>
         <v>1.4299995653496761E-2</v>
       </c>
-      <c r="D142" s="42"/>
-      <c r="E142" s="42"/>
-      <c r="F142" s="42"/>
-      <c r="G142" s="42"/>
-      <c r="H142" s="42"/>
-      <c r="I142" s="42"/>
-      <c r="J142" s="43"/>
+      <c r="D142" s="26"/>
+      <c r="E142" s="26"/>
+      <c r="F142" s="26"/>
+      <c r="G142" s="26"/>
+      <c r="H142" s="26"/>
+      <c r="I142" s="26"/>
+      <c r="J142" s="27"/>
     </row>
     <row r="143" spans="1:11" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B143" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C143" s="44">
+      <c r="C143" s="47">
         <f>J139*J138/(10^9)</f>
         <v>0.10117008</v>
       </c>
-      <c r="D143" s="44"/>
-      <c r="E143" s="44"/>
-      <c r="F143" s="44"/>
-      <c r="G143" s="44"/>
-      <c r="H143" s="44"/>
-      <c r="I143" s="44"/>
-      <c r="J143" s="45"/>
+      <c r="D143" s="47"/>
+      <c r="E143" s="47"/>
+      <c r="F143" s="47"/>
+      <c r="G143" s="47"/>
+      <c r="H143" s="47"/>
+      <c r="I143" s="47"/>
+      <c r="J143" s="48"/>
     </row>
     <row r="144" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B144" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C144" s="57">
+      <c r="C144" s="40">
         <v>1</v>
       </c>
-      <c r="D144" s="57"/>
-      <c r="E144" s="57"/>
-      <c r="F144" s="57"/>
-      <c r="G144" s="57"/>
-      <c r="H144" s="57"/>
-      <c r="I144" s="57"/>
-      <c r="J144" s="58"/>
+      <c r="D144" s="40"/>
+      <c r="E144" s="40"/>
+      <c r="F144" s="40"/>
+      <c r="G144" s="40"/>
+      <c r="H144" s="40"/>
+      <c r="I144" s="40"/>
+      <c r="J144" s="41"/>
     </row>
     <row r="146" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="147" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B147" s="48" t="s">
+      <c r="B147" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C147" s="50" t="s">
+      <c r="C147" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D147" s="50" t="s">
+      <c r="D147" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E147" s="50" t="s">
+      <c r="E147" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F147" s="50" t="s">
+      <c r="F147" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G147" s="50" t="s">
+      <c r="G147" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H147" s="50" t="s">
+      <c r="H147" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I147" s="50">
+      <c r="I147" s="30">
         <v>4</v>
       </c>
-      <c r="J147" s="52" t="s">
+      <c r="J147" s="32" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="148" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B148" s="49"/>
-      <c r="C148" s="51"/>
-      <c r="D148" s="51"/>
-      <c r="E148" s="51"/>
-      <c r="F148" s="51"/>
-      <c r="G148" s="51"/>
-      <c r="H148" s="51"/>
-      <c r="I148" s="51"/>
-      <c r="J148" s="53"/>
+      <c r="B148" s="36"/>
+      <c r="C148" s="31"/>
+      <c r="D148" s="31"/>
+      <c r="E148" s="31"/>
+      <c r="F148" s="31"/>
+      <c r="G148" s="31"/>
+      <c r="H148" s="31"/>
+      <c r="I148" s="31"/>
+      <c r="J148" s="33"/>
     </row>
     <row r="149" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B149" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C149" s="40">
+      <c r="C149" s="28">
         <v>91964</v>
       </c>
-      <c r="D149" s="40"/>
-      <c r="E149" s="40"/>
-      <c r="F149" s="40"/>
-      <c r="G149" s="40"/>
-      <c r="H149" s="40"/>
-      <c r="I149" s="40"/>
-      <c r="J149" s="41"/>
+      <c r="D149" s="28"/>
+      <c r="E149" s="28"/>
+      <c r="F149" s="28"/>
+      <c r="G149" s="28"/>
+      <c r="H149" s="28"/>
+      <c r="I149" s="28"/>
+      <c r="J149" s="29"/>
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B150" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C150" s="40">
+      <c r="C150" s="28">
         <v>14883</v>
       </c>
-      <c r="D150" s="40"/>
-      <c r="E150" s="40"/>
-      <c r="F150" s="40"/>
-      <c r="G150" s="40"/>
-      <c r="H150" s="40"/>
-      <c r="I150" s="40"/>
-      <c r="J150" s="41"/>
+      <c r="D150" s="28"/>
+      <c r="E150" s="28"/>
+      <c r="F150" s="28"/>
+      <c r="G150" s="28"/>
+      <c r="H150" s="28"/>
+      <c r="I150" s="28"/>
+      <c r="J150" s="29"/>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B151" s="2" t="s">
@@ -3828,133 +3828,133 @@
       </c>
     </row>
     <row r="154" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B154" s="29"/>
-      <c r="C154" s="30"/>
-      <c r="D154" s="30"/>
-      <c r="E154" s="30"/>
-      <c r="F154" s="30"/>
-      <c r="G154" s="30"/>
-      <c r="H154" s="30"/>
-      <c r="I154" s="30"/>
-      <c r="J154" s="31"/>
+      <c r="B154" s="37"/>
+      <c r="C154" s="38"/>
+      <c r="D154" s="38"/>
+      <c r="E154" s="38"/>
+      <c r="F154" s="38"/>
+      <c r="G154" s="38"/>
+      <c r="H154" s="38"/>
+      <c r="I154" s="38"/>
+      <c r="J154" s="39"/>
     </row>
     <row r="155" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B155" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C155" s="42">
+      <c r="C155" s="26">
         <f>C150/C149</f>
         <v>0.16183506589535035</v>
       </c>
-      <c r="D155" s="42"/>
-      <c r="E155" s="42"/>
-      <c r="F155" s="42"/>
-      <c r="G155" s="42"/>
-      <c r="H155" s="42"/>
-      <c r="I155" s="42"/>
-      <c r="J155" s="43"/>
+      <c r="D155" s="26"/>
+      <c r="E155" s="26"/>
+      <c r="F155" s="26"/>
+      <c r="G155" s="26"/>
+      <c r="H155" s="26"/>
+      <c r="I155" s="26"/>
+      <c r="J155" s="27"/>
     </row>
     <row r="156" spans="2:10" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B156" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C156" s="44">
+      <c r="C156" s="47">
         <f>J152*J151/(10^9)</f>
         <v>4.4961863380000002</v>
       </c>
-      <c r="D156" s="44"/>
-      <c r="E156" s="44"/>
-      <c r="F156" s="44"/>
-      <c r="G156" s="44"/>
-      <c r="H156" s="44"/>
-      <c r="I156" s="44"/>
-      <c r="J156" s="45"/>
+      <c r="D156" s="47"/>
+      <c r="E156" s="47"/>
+      <c r="F156" s="47"/>
+      <c r="G156" s="47"/>
+      <c r="H156" s="47"/>
+      <c r="I156" s="47"/>
+      <c r="J156" s="48"/>
     </row>
     <row r="157" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B157" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C157" s="46">
+      <c r="C157" s="42">
         <v>2</v>
       </c>
-      <c r="D157" s="46"/>
-      <c r="E157" s="46"/>
-      <c r="F157" s="46"/>
-      <c r="G157" s="46"/>
-      <c r="H157" s="46"/>
-      <c r="I157" s="46"/>
-      <c r="J157" s="47"/>
+      <c r="D157" s="42"/>
+      <c r="E157" s="42"/>
+      <c r="F157" s="42"/>
+      <c r="G157" s="42"/>
+      <c r="H157" s="42"/>
+      <c r="I157" s="42"/>
+      <c r="J157" s="43"/>
     </row>
     <row r="159" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="160" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B160" s="48" t="s">
+      <c r="B160" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C160" s="50" t="s">
+      <c r="C160" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D160" s="50" t="s">
+      <c r="D160" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E160" s="50" t="s">
+      <c r="E160" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F160" s="50" t="s">
+      <c r="F160" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G160" s="50" t="s">
+      <c r="G160" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H160" s="50" t="s">
+      <c r="H160" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I160" s="50">
+      <c r="I160" s="30">
         <v>4</v>
       </c>
-      <c r="J160" s="52" t="s">
+      <c r="J160" s="32" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="161" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B161" s="49"/>
-      <c r="C161" s="51"/>
-      <c r="D161" s="51"/>
-      <c r="E161" s="51"/>
-      <c r="F161" s="51"/>
-      <c r="G161" s="51"/>
-      <c r="H161" s="51"/>
-      <c r="I161" s="51"/>
-      <c r="J161" s="53"/>
+      <c r="B161" s="36"/>
+      <c r="C161" s="31"/>
+      <c r="D161" s="31"/>
+      <c r="E161" s="31"/>
+      <c r="F161" s="31"/>
+      <c r="G161" s="31"/>
+      <c r="H161" s="31"/>
+      <c r="I161" s="31"/>
+      <c r="J161" s="33"/>
     </row>
     <row r="162" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B162" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C162" s="40">
+      <c r="C162" s="28">
         <v>92186</v>
       </c>
-      <c r="D162" s="40"/>
-      <c r="E162" s="40"/>
-      <c r="F162" s="40"/>
-      <c r="G162" s="40"/>
-      <c r="H162" s="40"/>
-      <c r="I162" s="40"/>
-      <c r="J162" s="41"/>
+      <c r="D162" s="28"/>
+      <c r="E162" s="28"/>
+      <c r="F162" s="28"/>
+      <c r="G162" s="28"/>
+      <c r="H162" s="28"/>
+      <c r="I162" s="28"/>
+      <c r="J162" s="29"/>
     </row>
     <row r="163" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B163" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C163" s="40">
+      <c r="C163" s="28">
         <v>23413</v>
       </c>
-      <c r="D163" s="40"/>
-      <c r="E163" s="40"/>
-      <c r="F163" s="40"/>
-      <c r="G163" s="40"/>
-      <c r="H163" s="40"/>
-      <c r="I163" s="40"/>
-      <c r="J163" s="41"/>
+      <c r="D163" s="28"/>
+      <c r="E163" s="28"/>
+      <c r="F163" s="28"/>
+      <c r="G163" s="28"/>
+      <c r="H163" s="28"/>
+      <c r="I163" s="28"/>
+      <c r="J163" s="29"/>
     </row>
     <row r="164" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B164" s="2" t="s">
@@ -4047,133 +4047,133 @@
       </c>
     </row>
     <row r="167" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B167" s="29"/>
-      <c r="C167" s="30"/>
-      <c r="D167" s="30"/>
-      <c r="E167" s="30"/>
-      <c r="F167" s="30"/>
-      <c r="G167" s="30"/>
-      <c r="H167" s="30"/>
-      <c r="I167" s="30"/>
-      <c r="J167" s="31"/>
+      <c r="B167" s="37"/>
+      <c r="C167" s="38"/>
+      <c r="D167" s="38"/>
+      <c r="E167" s="38"/>
+      <c r="F167" s="38"/>
+      <c r="G167" s="38"/>
+      <c r="H167" s="38"/>
+      <c r="I167" s="38"/>
+      <c r="J167" s="39"/>
     </row>
     <row r="168" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B168" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C168" s="42">
+      <c r="C168" s="26">
         <f>C163/C162</f>
         <v>0.25397565790901006</v>
       </c>
-      <c r="D168" s="42"/>
-      <c r="E168" s="42"/>
-      <c r="F168" s="42"/>
-      <c r="G168" s="42"/>
-      <c r="H168" s="42"/>
-      <c r="I168" s="42"/>
-      <c r="J168" s="43"/>
+      <c r="D168" s="26"/>
+      <c r="E168" s="26"/>
+      <c r="F168" s="26"/>
+      <c r="G168" s="26"/>
+      <c r="H168" s="26"/>
+      <c r="I168" s="26"/>
+      <c r="J168" s="27"/>
     </row>
     <row r="169" spans="2:10" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B169" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C169" s="44">
+      <c r="C169" s="47">
         <f>J165*J164/(10^9)</f>
         <v>9.5076309600000002</v>
       </c>
-      <c r="D169" s="44"/>
-      <c r="E169" s="44"/>
-      <c r="F169" s="44"/>
-      <c r="G169" s="44"/>
-      <c r="H169" s="44"/>
-      <c r="I169" s="44"/>
-      <c r="J169" s="45"/>
+      <c r="D169" s="47"/>
+      <c r="E169" s="47"/>
+      <c r="F169" s="47"/>
+      <c r="G169" s="47"/>
+      <c r="H169" s="47"/>
+      <c r="I169" s="47"/>
+      <c r="J169" s="48"/>
     </row>
     <row r="170" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B170" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C170" s="46">
+      <c r="C170" s="42">
         <v>3</v>
       </c>
-      <c r="D170" s="46"/>
-      <c r="E170" s="46"/>
-      <c r="F170" s="46"/>
-      <c r="G170" s="46"/>
-      <c r="H170" s="46"/>
-      <c r="I170" s="46"/>
-      <c r="J170" s="47"/>
+      <c r="D170" s="42"/>
+      <c r="E170" s="42"/>
+      <c r="F170" s="42"/>
+      <c r="G170" s="42"/>
+      <c r="H170" s="42"/>
+      <c r="I170" s="42"/>
+      <c r="J170" s="43"/>
     </row>
     <row r="172" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="173" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B173" s="48" t="s">
+      <c r="B173" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C173" s="50" t="s">
+      <c r="C173" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D173" s="50" t="s">
+      <c r="D173" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E173" s="50" t="s">
+      <c r="E173" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F173" s="50" t="s">
+      <c r="F173" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G173" s="50" t="s">
+      <c r="G173" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H173" s="50" t="s">
+      <c r="H173" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I173" s="50">
+      <c r="I173" s="30">
         <v>4</v>
       </c>
-      <c r="J173" s="52" t="s">
+      <c r="J173" s="32" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="174" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B174" s="49"/>
-      <c r="C174" s="51"/>
-      <c r="D174" s="51"/>
-      <c r="E174" s="51"/>
-      <c r="F174" s="51"/>
-      <c r="G174" s="51"/>
-      <c r="H174" s="51"/>
-      <c r="I174" s="51"/>
-      <c r="J174" s="53"/>
+      <c r="B174" s="36"/>
+      <c r="C174" s="31"/>
+      <c r="D174" s="31"/>
+      <c r="E174" s="31"/>
+      <c r="F174" s="31"/>
+      <c r="G174" s="31"/>
+      <c r="H174" s="31"/>
+      <c r="I174" s="31"/>
+      <c r="J174" s="33"/>
     </row>
     <row r="175" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B175" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C175" s="40">
+      <c r="C175" s="28">
         <v>92400</v>
       </c>
-      <c r="D175" s="40"/>
-      <c r="E175" s="40"/>
-      <c r="F175" s="40"/>
-      <c r="G175" s="40"/>
-      <c r="H175" s="40"/>
-      <c r="I175" s="40"/>
-      <c r="J175" s="41"/>
+      <c r="D175" s="28"/>
+      <c r="E175" s="28"/>
+      <c r="F175" s="28"/>
+      <c r="G175" s="28"/>
+      <c r="H175" s="28"/>
+      <c r="I175" s="28"/>
+      <c r="J175" s="29"/>
     </row>
     <row r="176" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B176" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C176" s="40">
+      <c r="C176" s="28">
         <v>70055</v>
       </c>
-      <c r="D176" s="40"/>
-      <c r="E176" s="40"/>
-      <c r="F176" s="40"/>
-      <c r="G176" s="40"/>
-      <c r="H176" s="40"/>
-      <c r="I176" s="40"/>
-      <c r="J176" s="41"/>
+      <c r="D176" s="28"/>
+      <c r="E176" s="28"/>
+      <c r="F176" s="28"/>
+      <c r="G176" s="28"/>
+      <c r="H176" s="28"/>
+      <c r="I176" s="28"/>
+      <c r="J176" s="29"/>
     </row>
     <row r="177" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B177" s="2" t="s">
@@ -4303,133 +4303,133 @@
       </c>
     </row>
     <row r="181" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B181" s="29"/>
-      <c r="C181" s="30"/>
-      <c r="D181" s="30"/>
-      <c r="E181" s="30"/>
-      <c r="F181" s="30"/>
-      <c r="G181" s="30"/>
-      <c r="H181" s="30"/>
-      <c r="I181" s="30"/>
-      <c r="J181" s="31"/>
+      <c r="B181" s="37"/>
+      <c r="C181" s="38"/>
+      <c r="D181" s="38"/>
+      <c r="E181" s="38"/>
+      <c r="F181" s="38"/>
+      <c r="G181" s="38"/>
+      <c r="H181" s="38"/>
+      <c r="I181" s="38"/>
+      <c r="J181" s="39"/>
     </row>
     <row r="182" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B182" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C182" s="42">
+      <c r="C182" s="26">
         <f>C176/C175</f>
         <v>0.75817099567099566</v>
       </c>
-      <c r="D182" s="42"/>
-      <c r="E182" s="42"/>
-      <c r="F182" s="42"/>
-      <c r="G182" s="42"/>
-      <c r="H182" s="42"/>
-      <c r="I182" s="42"/>
-      <c r="J182" s="43"/>
+      <c r="D182" s="26"/>
+      <c r="E182" s="26"/>
+      <c r="F182" s="26"/>
+      <c r="G182" s="26"/>
+      <c r="H182" s="26"/>
+      <c r="I182" s="26"/>
+      <c r="J182" s="27"/>
     </row>
     <row r="183" spans="2:10" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B183" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C183" s="44">
+      <c r="C183" s="47">
         <f>J178*J177/(10^9)</f>
         <v>501.31084294499999</v>
       </c>
-      <c r="D183" s="44"/>
-      <c r="E183" s="44"/>
-      <c r="F183" s="44"/>
-      <c r="G183" s="44"/>
-      <c r="H183" s="44"/>
-      <c r="I183" s="44"/>
-      <c r="J183" s="45"/>
+      <c r="D183" s="47"/>
+      <c r="E183" s="47"/>
+      <c r="F183" s="47"/>
+      <c r="G183" s="47"/>
+      <c r="H183" s="47"/>
+      <c r="I183" s="47"/>
+      <c r="J183" s="48"/>
     </row>
     <row r="184" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B184" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C184" s="46">
+      <c r="C184" s="42">
         <v>4</v>
       </c>
-      <c r="D184" s="46"/>
-      <c r="E184" s="46"/>
-      <c r="F184" s="46"/>
-      <c r="G184" s="46"/>
-      <c r="H184" s="46"/>
-      <c r="I184" s="46"/>
-      <c r="J184" s="47"/>
+      <c r="D184" s="42"/>
+      <c r="E184" s="42"/>
+      <c r="F184" s="42"/>
+      <c r="G184" s="42"/>
+      <c r="H184" s="42"/>
+      <c r="I184" s="42"/>
+      <c r="J184" s="43"/>
     </row>
     <row r="186" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="187" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B187" s="48" t="s">
+      <c r="B187" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C187" s="50" t="s">
+      <c r="C187" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D187" s="50" t="s">
+      <c r="D187" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E187" s="50" t="s">
+      <c r="E187" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F187" s="50" t="s">
+      <c r="F187" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G187" s="50" t="s">
+      <c r="G187" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H187" s="50" t="s">
+      <c r="H187" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I187" s="50">
+      <c r="I187" s="30">
         <v>4</v>
       </c>
-      <c r="J187" s="52" t="s">
+      <c r="J187" s="32" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="188" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B188" s="49"/>
-      <c r="C188" s="51"/>
-      <c r="D188" s="51"/>
-      <c r="E188" s="51"/>
-      <c r="F188" s="51"/>
-      <c r="G188" s="51"/>
-      <c r="H188" s="51"/>
-      <c r="I188" s="51"/>
-      <c r="J188" s="53"/>
+      <c r="B188" s="36"/>
+      <c r="C188" s="31"/>
+      <c r="D188" s="31"/>
+      <c r="E188" s="31"/>
+      <c r="F188" s="31"/>
+      <c r="G188" s="31"/>
+      <c r="H188" s="31"/>
+      <c r="I188" s="31"/>
+      <c r="J188" s="33"/>
     </row>
     <row r="189" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B189" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C189" s="40">
+      <c r="C189" s="28">
         <v>92400</v>
       </c>
-      <c r="D189" s="40"/>
-      <c r="E189" s="40"/>
-      <c r="F189" s="40"/>
-      <c r="G189" s="40"/>
-      <c r="H189" s="40"/>
-      <c r="I189" s="40"/>
-      <c r="J189" s="41"/>
+      <c r="D189" s="28"/>
+      <c r="E189" s="28"/>
+      <c r="F189" s="28"/>
+      <c r="G189" s="28"/>
+      <c r="H189" s="28"/>
+      <c r="I189" s="28"/>
+      <c r="J189" s="29"/>
     </row>
     <row r="190" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B190" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C190" s="40">
+      <c r="C190" s="28">
         <v>69767</v>
       </c>
-      <c r="D190" s="40"/>
-      <c r="E190" s="40"/>
-      <c r="F190" s="40"/>
-      <c r="G190" s="40"/>
-      <c r="H190" s="40"/>
-      <c r="I190" s="40"/>
-      <c r="J190" s="41"/>
+      <c r="D190" s="28"/>
+      <c r="E190" s="28"/>
+      <c r="F190" s="28"/>
+      <c r="G190" s="28"/>
+      <c r="H190" s="28"/>
+      <c r="I190" s="28"/>
+      <c r="J190" s="29"/>
     </row>
     <row r="191" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B191" s="2" t="s">
@@ -4559,101 +4559,101 @@
       </c>
     </row>
     <row r="195" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B195" s="29"/>
-      <c r="C195" s="30"/>
-      <c r="D195" s="30"/>
-      <c r="E195" s="30"/>
-      <c r="F195" s="30"/>
-      <c r="G195" s="30"/>
-      <c r="H195" s="30"/>
-      <c r="I195" s="30"/>
-      <c r="J195" s="31"/>
+      <c r="B195" s="37"/>
+      <c r="C195" s="38"/>
+      <c r="D195" s="38"/>
+      <c r="E195" s="38"/>
+      <c r="F195" s="38"/>
+      <c r="G195" s="38"/>
+      <c r="H195" s="38"/>
+      <c r="I195" s="38"/>
+      <c r="J195" s="39"/>
     </row>
     <row r="196" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B196" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C196" s="42">
+      <c r="C196" s="26">
         <f>C190/C189</f>
         <v>0.75505411255411259</v>
       </c>
-      <c r="D196" s="42"/>
-      <c r="E196" s="42"/>
-      <c r="F196" s="42"/>
-      <c r="G196" s="42"/>
-      <c r="H196" s="42"/>
-      <c r="I196" s="42"/>
-      <c r="J196" s="43"/>
+      <c r="D196" s="26"/>
+      <c r="E196" s="26"/>
+      <c r="F196" s="26"/>
+      <c r="G196" s="26"/>
+      <c r="H196" s="26"/>
+      <c r="I196" s="26"/>
+      <c r="J196" s="27"/>
     </row>
     <row r="197" spans="2:20" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B197" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C197" s="44">
+      <c r="C197" s="47">
         <f>J192*J191/(10^9)</f>
         <v>1391.68632933</v>
       </c>
-      <c r="D197" s="44"/>
-      <c r="E197" s="44"/>
-      <c r="F197" s="44"/>
-      <c r="G197" s="44"/>
-      <c r="H197" s="44"/>
-      <c r="I197" s="44"/>
-      <c r="J197" s="45"/>
+      <c r="D197" s="47"/>
+      <c r="E197" s="47"/>
+      <c r="F197" s="47"/>
+      <c r="G197" s="47"/>
+      <c r="H197" s="47"/>
+      <c r="I197" s="47"/>
+      <c r="J197" s="48"/>
     </row>
     <row r="198" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B198" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C198" s="46">
+      <c r="C198" s="42">
         <v>5</v>
       </c>
-      <c r="D198" s="46"/>
-      <c r="E198" s="46"/>
-      <c r="F198" s="46"/>
-      <c r="G198" s="46"/>
-      <c r="H198" s="46"/>
-      <c r="I198" s="46"/>
-      <c r="J198" s="47"/>
+      <c r="D198" s="42"/>
+      <c r="E198" s="42"/>
+      <c r="F198" s="42"/>
+      <c r="G198" s="42"/>
+      <c r="H198" s="42"/>
+      <c r="I198" s="42"/>
+      <c r="J198" s="43"/>
     </row>
     <row r="203" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="204" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B204" s="33" t="s">
+      <c r="B204" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="C204" s="34"/>
-      <c r="D204" s="34"/>
-      <c r="E204" s="34"/>
-      <c r="F204" s="34"/>
-      <c r="G204" s="34"/>
-      <c r="H204" s="34"/>
-      <c r="I204" s="34"/>
-      <c r="J204" s="34"/>
-      <c r="K204" s="34"/>
-      <c r="L204" s="34"/>
-      <c r="M204" s="34"/>
-      <c r="N204" s="34"/>
-      <c r="O204" s="34"/>
-      <c r="P204" s="34"/>
-      <c r="Q204" s="34"/>
-      <c r="R204" s="34"/>
-      <c r="S204" s="34"/>
-      <c r="T204" s="35"/>
+      <c r="C204" s="52"/>
+      <c r="D204" s="52"/>
+      <c r="E204" s="52"/>
+      <c r="F204" s="52"/>
+      <c r="G204" s="52"/>
+      <c r="H204" s="52"/>
+      <c r="I204" s="52"/>
+      <c r="J204" s="52"/>
+      <c r="K204" s="52"/>
+      <c r="L204" s="52"/>
+      <c r="M204" s="52"/>
+      <c r="N204" s="52"/>
+      <c r="O204" s="52"/>
+      <c r="P204" s="52"/>
+      <c r="Q204" s="52"/>
+      <c r="R204" s="52"/>
+      <c r="S204" s="52"/>
+      <c r="T204" s="53"/>
     </row>
     <row r="207" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I207" s="32" t="s">
+      <c r="I207" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="J207" s="32"/>
-      <c r="K207" s="32"/>
-      <c r="L207" s="32"/>
-      <c r="M207" s="32"/>
-      <c r="N207" s="32"/>
-      <c r="O207" s="32"/>
-      <c r="P207" s="32"/>
-      <c r="Q207" s="32"/>
-      <c r="R207" s="32"/>
-      <c r="S207" s="32"/>
+      <c r="J207" s="58"/>
+      <c r="K207" s="58"/>
+      <c r="L207" s="58"/>
+      <c r="M207" s="58"/>
+      <c r="N207" s="58"/>
+      <c r="O207" s="58"/>
+      <c r="P207" s="58"/>
+      <c r="Q207" s="58"/>
+      <c r="R207" s="58"/>
+      <c r="S207" s="58"/>
       <c r="T207" t="s">
         <v>78</v>
       </c>
@@ -4662,26 +4662,26 @@
       <c r="I208" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="J208" s="26">
+      <c r="J208" s="49">
         <v>1000</v>
       </c>
-      <c r="K208" s="27"/>
-      <c r="L208" s="26">
+      <c r="K208" s="50"/>
+      <c r="L208" s="49">
         <v>2000</v>
       </c>
-      <c r="M208" s="27"/>
-      <c r="N208" s="26">
+      <c r="M208" s="50"/>
+      <c r="N208" s="49">
         <v>3000</v>
       </c>
-      <c r="O208" s="27"/>
-      <c r="P208" s="26">
+      <c r="O208" s="50"/>
+      <c r="P208" s="49">
         <v>4000</v>
       </c>
-      <c r="Q208" s="27"/>
-      <c r="R208" s="26">
+      <c r="Q208" s="50"/>
+      <c r="R208" s="49">
         <v>5000</v>
       </c>
-      <c r="S208" s="28"/>
+      <c r="S208" s="57"/>
     </row>
     <row r="209" spans="9:19" x14ac:dyDescent="0.3">
       <c r="I209" s="2" t="s">
@@ -4968,23 +4968,23 @@
         <f t="shared" si="2"/>
         <v>20548</v>
       </c>
-      <c r="S216" s="20">
+      <c r="S216" s="23">
         <f t="shared" si="2"/>
         <v>9619</v>
       </c>
     </row>
     <row r="217" spans="9:19" x14ac:dyDescent="0.3">
-      <c r="I217" s="29"/>
-      <c r="J217" s="30"/>
-      <c r="K217" s="30"/>
-      <c r="L217" s="30"/>
-      <c r="M217" s="30"/>
-      <c r="N217" s="30"/>
-      <c r="O217" s="30"/>
-      <c r="P217" s="30"/>
-      <c r="Q217" s="30"/>
-      <c r="R217" s="30"/>
-      <c r="S217" s="31"/>
+      <c r="I217" s="37"/>
+      <c r="J217" s="38"/>
+      <c r="K217" s="38"/>
+      <c r="L217" s="38"/>
+      <c r="M217" s="38"/>
+      <c r="N217" s="38"/>
+      <c r="O217" s="38"/>
+      <c r="P217" s="38"/>
+      <c r="Q217" s="38"/>
+      <c r="R217" s="38"/>
+      <c r="S217" s="39"/>
     </row>
     <row r="218" spans="9:19" x14ac:dyDescent="0.3">
       <c r="I218" s="2" t="s">
@@ -5092,17 +5092,17 @@
       </c>
     </row>
     <row r="221" spans="9:19" x14ac:dyDescent="0.3">
-      <c r="I221" s="29"/>
-      <c r="J221" s="30"/>
-      <c r="K221" s="30"/>
-      <c r="L221" s="30"/>
-      <c r="M221" s="30"/>
-      <c r="N221" s="30"/>
-      <c r="O221" s="30"/>
-      <c r="P221" s="30"/>
-      <c r="Q221" s="30"/>
-      <c r="R221" s="30"/>
-      <c r="S221" s="31"/>
+      <c r="I221" s="37"/>
+      <c r="J221" s="38"/>
+      <c r="K221" s="38"/>
+      <c r="L221" s="38"/>
+      <c r="M221" s="38"/>
+      <c r="N221" s="38"/>
+      <c r="O221" s="38"/>
+      <c r="P221" s="38"/>
+      <c r="Q221" s="38"/>
+      <c r="R221" s="38"/>
+      <c r="S221" s="39"/>
     </row>
     <row r="222" spans="9:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="I222" s="16" t="s">
@@ -5210,27 +5210,27 @@
       </c>
     </row>
     <row r="227" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B227" s="39" t="s">
+      <c r="B227" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="C227" s="39"/>
-      <c r="D227" s="39"/>
-      <c r="E227" s="39"/>
-      <c r="F227" s="39"/>
-      <c r="G227" s="39"/>
-      <c r="I227" s="32" t="s">
+      <c r="C227" s="56"/>
+      <c r="D227" s="56"/>
+      <c r="E227" s="56"/>
+      <c r="F227" s="56"/>
+      <c r="G227" s="56"/>
+      <c r="I227" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="J227" s="32"/>
-      <c r="K227" s="32"/>
-      <c r="L227" s="32"/>
-      <c r="M227" s="32"/>
-      <c r="N227" s="32"/>
-      <c r="O227" s="32"/>
-      <c r="P227" s="32"/>
-      <c r="Q227" s="32"/>
-      <c r="R227" s="32"/>
-      <c r="S227" s="32"/>
+      <c r="J227" s="58"/>
+      <c r="K227" s="58"/>
+      <c r="L227" s="58"/>
+      <c r="M227" s="58"/>
+      <c r="N227" s="58"/>
+      <c r="O227" s="58"/>
+      <c r="P227" s="58"/>
+      <c r="Q227" s="58"/>
+      <c r="R227" s="58"/>
+      <c r="S227" s="58"/>
       <c r="T227" t="s">
         <v>78</v>
       </c>
@@ -5257,26 +5257,26 @@
       <c r="I228" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="J228" s="26">
+      <c r="J228" s="49">
         <v>1000</v>
       </c>
-      <c r="K228" s="27"/>
-      <c r="L228" s="26">
+      <c r="K228" s="50"/>
+      <c r="L228" s="49">
         <v>2000</v>
       </c>
-      <c r="M228" s="27"/>
-      <c r="N228" s="26">
+      <c r="M228" s="50"/>
+      <c r="N228" s="49">
         <v>3000</v>
       </c>
-      <c r="O228" s="27"/>
-      <c r="P228" s="26">
+      <c r="O228" s="50"/>
+      <c r="P228" s="49">
         <v>4000</v>
       </c>
-      <c r="Q228" s="27"/>
-      <c r="R228" s="26">
+      <c r="Q228" s="50"/>
+      <c r="R228" s="49">
         <v>5000</v>
       </c>
-      <c r="S228" s="28"/>
+      <c r="S228" s="57"/>
     </row>
     <row r="229" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B229" s="1" t="s">
@@ -5712,29 +5712,29 @@
         <f t="shared" si="4"/>
         <v>48680</v>
       </c>
-      <c r="S236" s="20">
+      <c r="S236" s="23">
         <f t="shared" si="4"/>
         <v>24014</v>
       </c>
     </row>
     <row r="237" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B237" s="37"/>
-      <c r="C237" s="30"/>
-      <c r="D237" s="30"/>
-      <c r="E237" s="30"/>
-      <c r="F237" s="30"/>
-      <c r="G237" s="38"/>
-      <c r="I237" s="29"/>
-      <c r="J237" s="30"/>
-      <c r="K237" s="30"/>
-      <c r="L237" s="30"/>
-      <c r="M237" s="30"/>
-      <c r="N237" s="30"/>
-      <c r="O237" s="30"/>
-      <c r="P237" s="30"/>
-      <c r="Q237" s="30"/>
-      <c r="R237" s="30"/>
-      <c r="S237" s="31"/>
+      <c r="B237" s="54"/>
+      <c r="C237" s="38"/>
+      <c r="D237" s="38"/>
+      <c r="E237" s="38"/>
+      <c r="F237" s="38"/>
+      <c r="G237" s="55"/>
+      <c r="I237" s="37"/>
+      <c r="J237" s="38"/>
+      <c r="K237" s="38"/>
+      <c r="L237" s="38"/>
+      <c r="M237" s="38"/>
+      <c r="N237" s="38"/>
+      <c r="O237" s="38"/>
+      <c r="P237" s="38"/>
+      <c r="Q237" s="38"/>
+      <c r="R237" s="38"/>
+      <c r="S237" s="39"/>
     </row>
     <row r="238" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B238" s="1" t="s">
@@ -5896,23 +5896,23 @@
       </c>
     </row>
     <row r="241" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B241" s="37"/>
-      <c r="C241" s="30"/>
-      <c r="D241" s="30"/>
-      <c r="E241" s="30"/>
-      <c r="F241" s="30"/>
-      <c r="G241" s="38"/>
-      <c r="I241" s="29"/>
-      <c r="J241" s="30"/>
-      <c r="K241" s="30"/>
-      <c r="L241" s="30"/>
-      <c r="M241" s="30"/>
-      <c r="N241" s="30"/>
-      <c r="O241" s="30"/>
-      <c r="P241" s="30"/>
-      <c r="Q241" s="30"/>
-      <c r="R241" s="30"/>
-      <c r="S241" s="31"/>
+      <c r="B241" s="54"/>
+      <c r="C241" s="38"/>
+      <c r="D241" s="38"/>
+      <c r="E241" s="38"/>
+      <c r="F241" s="38"/>
+      <c r="G241" s="55"/>
+      <c r="I241" s="37"/>
+      <c r="J241" s="38"/>
+      <c r="K241" s="38"/>
+      <c r="L241" s="38"/>
+      <c r="M241" s="38"/>
+      <c r="N241" s="38"/>
+      <c r="O241" s="38"/>
+      <c r="P241" s="38"/>
+      <c r="Q241" s="38"/>
+      <c r="R241" s="38"/>
+      <c r="S241" s="39"/>
     </row>
     <row r="242" spans="2:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B242" s="9" t="s">
@@ -6074,27 +6074,27 @@
       </c>
     </row>
     <row r="247" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B247" s="39" t="s">
+      <c r="B247" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="C247" s="39"/>
-      <c r="D247" s="39"/>
-      <c r="E247" s="39"/>
-      <c r="F247" s="39"/>
-      <c r="G247" s="39"/>
-      <c r="I247" s="32" t="s">
+      <c r="C247" s="56"/>
+      <c r="D247" s="56"/>
+      <c r="E247" s="56"/>
+      <c r="F247" s="56"/>
+      <c r="G247" s="56"/>
+      <c r="I247" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="J247" s="32"/>
-      <c r="K247" s="32"/>
-      <c r="L247" s="32"/>
-      <c r="M247" s="32"/>
-      <c r="N247" s="32"/>
-      <c r="O247" s="32"/>
-      <c r="P247" s="32"/>
-      <c r="Q247" s="32"/>
-      <c r="R247" s="32"/>
-      <c r="S247" s="32"/>
+      <c r="J247" s="58"/>
+      <c r="K247" s="58"/>
+      <c r="L247" s="58"/>
+      <c r="M247" s="58"/>
+      <c r="N247" s="58"/>
+      <c r="O247" s="58"/>
+      <c r="P247" s="58"/>
+      <c r="Q247" s="58"/>
+      <c r="R247" s="58"/>
+      <c r="S247" s="58"/>
       <c r="T247" t="s">
         <v>78</v>
       </c>
@@ -6121,26 +6121,26 @@
       <c r="I248" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="J248" s="26">
+      <c r="J248" s="49">
         <v>1000</v>
       </c>
-      <c r="K248" s="27"/>
-      <c r="L248" s="26">
+      <c r="K248" s="50"/>
+      <c r="L248" s="49">
         <v>2000</v>
       </c>
-      <c r="M248" s="27"/>
-      <c r="N248" s="26">
+      <c r="M248" s="50"/>
+      <c r="N248" s="49">
         <v>3000</v>
       </c>
-      <c r="O248" s="27"/>
-      <c r="P248" s="26">
+      <c r="O248" s="50"/>
+      <c r="P248" s="49">
         <v>4000</v>
       </c>
-      <c r="Q248" s="27"/>
-      <c r="R248" s="26">
+      <c r="Q248" s="50"/>
+      <c r="R248" s="49">
         <v>5000</v>
       </c>
-      <c r="S248" s="28"/>
+      <c r="S248" s="57"/>
     </row>
     <row r="249" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B249" s="1" t="s">
@@ -6576,29 +6576,29 @@
         <f t="shared" si="6"/>
         <v>157778</v>
       </c>
-      <c r="S256" s="20">
+      <c r="S256" s="23">
         <f t="shared" si="6"/>
         <v>121253</v>
       </c>
     </row>
     <row r="257" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B257" s="37"/>
-      <c r="C257" s="30"/>
-      <c r="D257" s="30"/>
-      <c r="E257" s="30"/>
-      <c r="F257" s="30"/>
-      <c r="G257" s="38"/>
-      <c r="I257" s="29"/>
-      <c r="J257" s="30"/>
-      <c r="K257" s="30"/>
-      <c r="L257" s="30"/>
-      <c r="M257" s="30"/>
-      <c r="N257" s="30"/>
-      <c r="O257" s="30"/>
-      <c r="P257" s="30"/>
-      <c r="Q257" s="30"/>
-      <c r="R257" s="30"/>
-      <c r="S257" s="31"/>
+      <c r="B257" s="54"/>
+      <c r="C257" s="38"/>
+      <c r="D257" s="38"/>
+      <c r="E257" s="38"/>
+      <c r="F257" s="38"/>
+      <c r="G257" s="55"/>
+      <c r="I257" s="37"/>
+      <c r="J257" s="38"/>
+      <c r="K257" s="38"/>
+      <c r="L257" s="38"/>
+      <c r="M257" s="38"/>
+      <c r="N257" s="38"/>
+      <c r="O257" s="38"/>
+      <c r="P257" s="38"/>
+      <c r="Q257" s="38"/>
+      <c r="R257" s="38"/>
+      <c r="S257" s="39"/>
     </row>
     <row r="258" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B258" s="1" t="s">
@@ -6760,23 +6760,23 @@
       </c>
     </row>
     <row r="261" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B261" s="37"/>
-      <c r="C261" s="30"/>
-      <c r="D261" s="30"/>
-      <c r="E261" s="30"/>
-      <c r="F261" s="30"/>
-      <c r="G261" s="38"/>
-      <c r="I261" s="29"/>
-      <c r="J261" s="30"/>
-      <c r="K261" s="30"/>
-      <c r="L261" s="30"/>
-      <c r="M261" s="30"/>
-      <c r="N261" s="30"/>
-      <c r="O261" s="30"/>
-      <c r="P261" s="30"/>
-      <c r="Q261" s="30"/>
-      <c r="R261" s="30"/>
-      <c r="S261" s="31"/>
+      <c r="B261" s="54"/>
+      <c r="C261" s="38"/>
+      <c r="D261" s="38"/>
+      <c r="E261" s="38"/>
+      <c r="F261" s="38"/>
+      <c r="G261" s="55"/>
+      <c r="I261" s="37"/>
+      <c r="J261" s="38"/>
+      <c r="K261" s="38"/>
+      <c r="L261" s="38"/>
+      <c r="M261" s="38"/>
+      <c r="N261" s="38"/>
+      <c r="O261" s="38"/>
+      <c r="P261" s="38"/>
+      <c r="Q261" s="38"/>
+      <c r="R261" s="38"/>
+      <c r="S261" s="39"/>
     </row>
     <row r="262" spans="2:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B262" s="9" t="s">
@@ -6801,31 +6801,31 @@
         <v>33</v>
       </c>
       <c r="J262" s="12">
-        <v>0.1031</v>
+        <v>0.56699999999999995</v>
       </c>
       <c r="K262" s="21">
         <v>0.70689999999999997</v>
       </c>
       <c r="L262" s="12">
-        <v>9.64E-2</v>
+        <v>0.62729999999999997</v>
       </c>
       <c r="M262" s="21">
         <v>0.65149999999999997</v>
       </c>
       <c r="N262" s="12">
-        <v>9.4100000000000003E-2</v>
+        <v>0.64549999999999996</v>
       </c>
       <c r="O262" s="21">
         <v>0.62119999999999997</v>
       </c>
       <c r="P262" s="12">
-        <v>0.1237</v>
+        <v>0.56359999999999999</v>
       </c>
       <c r="Q262" s="21">
         <v>0.67859999999999998</v>
       </c>
       <c r="R262" s="12">
-        <v>9.8599999999999993E-2</v>
+        <v>0.62729999999999997</v>
       </c>
       <c r="S262" s="24">
         <v>0.60609999999999997</v>
@@ -6854,31 +6854,31 @@
         <v>34</v>
       </c>
       <c r="J263" s="12">
-        <v>8.6199999999999999E-2</v>
+        <v>0.53469999999999995</v>
       </c>
       <c r="K263" s="21">
         <v>0.56710000000000005</v>
       </c>
       <c r="L263" s="12">
-        <v>9.3700000000000006E-2</v>
+        <v>0.57709999999999995</v>
       </c>
       <c r="M263" s="21">
         <v>0.5927</v>
       </c>
       <c r="N263" s="12">
-        <v>9.5100000000000004E-2</v>
+        <v>0.59</v>
       </c>
       <c r="O263" s="21">
         <v>0.60019999999999996</v>
       </c>
       <c r="P263" s="12">
-        <v>9.6799999999999997E-2</v>
+        <v>0.59750000000000003</v>
       </c>
       <c r="Q263" s="21">
         <v>0.61019999999999996</v>
       </c>
       <c r="R263" s="12">
-        <v>9.7900000000000001E-2</v>
+        <v>0.60429999999999995</v>
       </c>
       <c r="S263" s="24">
         <v>0.6109</v>
@@ -6909,32 +6909,32 @@
       <c r="I264" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="J264" s="18">
-        <v>46.2376</v>
+      <c r="J264" s="12">
+        <v>59.0672</v>
       </c>
       <c r="K264" s="22">
         <v>48.268000000000001</v>
       </c>
-      <c r="L264" s="18">
-        <v>40.743000000000002</v>
+      <c r="L264" s="12">
+        <v>58.325600000000001</v>
       </c>
       <c r="M264" s="22">
         <v>50.787700000000001</v>
       </c>
-      <c r="N264" s="18">
-        <v>43.5428</v>
+      <c r="N264" s="12">
+        <v>56.906700000000001</v>
       </c>
       <c r="O264" s="22">
         <v>50.7393</v>
       </c>
-      <c r="P264" s="18">
-        <v>45.6053</v>
+      <c r="P264" s="12">
+        <v>56.869399999999999</v>
       </c>
       <c r="Q264" s="22">
         <v>47.606200000000001</v>
       </c>
-      <c r="R264" s="18">
-        <v>44.694099999999999</v>
+      <c r="R264" s="12">
+        <v>54.556600000000003</v>
       </c>
       <c r="S264" s="25">
         <v>44.534300000000002</v>
@@ -6944,27 +6944,27 @@
       <c r="W264" s="13"/>
     </row>
     <row r="267" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B267" s="39" t="s">
+      <c r="B267" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="C267" s="39"/>
-      <c r="D267" s="39"/>
-      <c r="E267" s="39"/>
-      <c r="F267" s="39"/>
-      <c r="G267" s="39"/>
-      <c r="I267" s="32" t="s">
+      <c r="C267" s="56"/>
+      <c r="D267" s="56"/>
+      <c r="E267" s="56"/>
+      <c r="F267" s="56"/>
+      <c r="G267" s="56"/>
+      <c r="I267" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="J267" s="32"/>
-      <c r="K267" s="32"/>
-      <c r="L267" s="32"/>
-      <c r="M267" s="32"/>
-      <c r="N267" s="32"/>
-      <c r="O267" s="32"/>
-      <c r="P267" s="32"/>
-      <c r="Q267" s="32"/>
-      <c r="R267" s="32"/>
-      <c r="S267" s="32"/>
+      <c r="J267" s="58"/>
+      <c r="K267" s="58"/>
+      <c r="L267" s="58"/>
+      <c r="M267" s="58"/>
+      <c r="N267" s="58"/>
+      <c r="O267" s="58"/>
+      <c r="P267" s="58"/>
+      <c r="Q267" s="58"/>
+      <c r="R267" s="58"/>
+      <c r="S267" s="58"/>
       <c r="T267" t="s">
         <v>77</v>
       </c>
@@ -6991,26 +6991,26 @@
       <c r="I268" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="J268" s="26">
+      <c r="J268" s="49">
         <v>1000</v>
       </c>
-      <c r="K268" s="27"/>
-      <c r="L268" s="26">
+      <c r="K268" s="50"/>
+      <c r="L268" s="49">
         <v>2000</v>
       </c>
-      <c r="M268" s="27"/>
-      <c r="N268" s="26">
+      <c r="M268" s="50"/>
+      <c r="N268" s="49">
         <v>3000</v>
       </c>
-      <c r="O268" s="27"/>
-      <c r="P268" s="26">
+      <c r="O268" s="50"/>
+      <c r="P268" s="49">
         <v>4000</v>
       </c>
-      <c r="Q268" s="27"/>
-      <c r="R268" s="26">
+      <c r="Q268" s="50"/>
+      <c r="R268" s="49">
         <v>5000</v>
       </c>
-      <c r="S268" s="28"/>
+      <c r="S268" s="57"/>
     </row>
     <row r="269" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B269" s="1" t="s">
@@ -7446,29 +7446,29 @@
         <f t="shared" si="8"/>
         <v>1269830</v>
       </c>
-      <c r="S276" s="20">
+      <c r="S276" s="23">
         <f t="shared" si="8"/>
         <v>810066</v>
       </c>
     </row>
     <row r="277" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B277" s="37"/>
-      <c r="C277" s="30"/>
-      <c r="D277" s="30"/>
-      <c r="E277" s="30"/>
-      <c r="F277" s="30"/>
-      <c r="G277" s="38"/>
-      <c r="I277" s="29"/>
-      <c r="J277" s="30"/>
-      <c r="K277" s="30"/>
-      <c r="L277" s="30"/>
-      <c r="M277" s="30"/>
-      <c r="N277" s="30"/>
-      <c r="O277" s="30"/>
-      <c r="P277" s="30"/>
-      <c r="Q277" s="30"/>
-      <c r="R277" s="30"/>
-      <c r="S277" s="31"/>
+      <c r="B277" s="54"/>
+      <c r="C277" s="38"/>
+      <c r="D277" s="38"/>
+      <c r="E277" s="38"/>
+      <c r="F277" s="38"/>
+      <c r="G277" s="55"/>
+      <c r="I277" s="37"/>
+      <c r="J277" s="38"/>
+      <c r="K277" s="38"/>
+      <c r="L277" s="38"/>
+      <c r="M277" s="38"/>
+      <c r="N277" s="38"/>
+      <c r="O277" s="38"/>
+      <c r="P277" s="38"/>
+      <c r="Q277" s="38"/>
+      <c r="R277" s="38"/>
+      <c r="S277" s="39"/>
     </row>
     <row r="278" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B278" s="11" t="s">
@@ -7842,23 +7842,23 @@
       </c>
     </row>
     <row r="285" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B285" s="37"/>
-      <c r="C285" s="30"/>
-      <c r="D285" s="30"/>
-      <c r="E285" s="30"/>
-      <c r="F285" s="30"/>
-      <c r="G285" s="38"/>
-      <c r="I285" s="36"/>
-      <c r="J285" s="30"/>
-      <c r="K285" s="30"/>
-      <c r="L285" s="30"/>
-      <c r="M285" s="30"/>
-      <c r="N285" s="30"/>
-      <c r="O285" s="30"/>
-      <c r="P285" s="30"/>
-      <c r="Q285" s="30"/>
-      <c r="R285" s="30"/>
-      <c r="S285" s="31"/>
+      <c r="B285" s="54"/>
+      <c r="C285" s="38"/>
+      <c r="D285" s="38"/>
+      <c r="E285" s="38"/>
+      <c r="F285" s="38"/>
+      <c r="G285" s="55"/>
+      <c r="I285" s="59"/>
+      <c r="J285" s="38"/>
+      <c r="K285" s="38"/>
+      <c r="L285" s="38"/>
+      <c r="M285" s="38"/>
+      <c r="N285" s="38"/>
+      <c r="O285" s="38"/>
+      <c r="P285" s="38"/>
+      <c r="Q285" s="38"/>
+      <c r="R285" s="38"/>
+      <c r="S285" s="39"/>
     </row>
     <row r="286" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B286" s="1" t="s">
@@ -8020,23 +8020,23 @@
       </c>
     </row>
     <row r="289" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B289" s="37"/>
-      <c r="C289" s="30"/>
-      <c r="D289" s="30"/>
-      <c r="E289" s="30"/>
-      <c r="F289" s="30"/>
-      <c r="G289" s="38"/>
-      <c r="I289" s="29"/>
-      <c r="J289" s="30"/>
-      <c r="K289" s="30"/>
-      <c r="L289" s="30"/>
-      <c r="M289" s="30"/>
-      <c r="N289" s="30"/>
-      <c r="O289" s="30"/>
-      <c r="P289" s="30"/>
-      <c r="Q289" s="30"/>
-      <c r="R289" s="30"/>
-      <c r="S289" s="31"/>
+      <c r="B289" s="54"/>
+      <c r="C289" s="38"/>
+      <c r="D289" s="38"/>
+      <c r="E289" s="38"/>
+      <c r="F289" s="38"/>
+      <c r="G289" s="55"/>
+      <c r="I289" s="37"/>
+      <c r="J289" s="38"/>
+      <c r="K289" s="38"/>
+      <c r="L289" s="38"/>
+      <c r="M289" s="38"/>
+      <c r="N289" s="38"/>
+      <c r="O289" s="38"/>
+      <c r="P289" s="38"/>
+      <c r="Q289" s="38"/>
+      <c r="R289" s="38"/>
+      <c r="S289" s="39"/>
     </row>
     <row r="290" spans="2:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B290" s="9" t="s">
@@ -8204,27 +8204,27 @@
       <c r="W292" s="13"/>
     </row>
     <row r="295" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B295" s="39" t="s">
+      <c r="B295" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="C295" s="39"/>
-      <c r="D295" s="39"/>
-      <c r="E295" s="39"/>
-      <c r="F295" s="39"/>
-      <c r="G295" s="39"/>
-      <c r="I295" s="32" t="s">
+      <c r="C295" s="56"/>
+      <c r="D295" s="56"/>
+      <c r="E295" s="56"/>
+      <c r="F295" s="56"/>
+      <c r="G295" s="56"/>
+      <c r="I295" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="J295" s="32"/>
-      <c r="K295" s="32"/>
-      <c r="L295" s="32"/>
-      <c r="M295" s="32"/>
-      <c r="N295" s="32"/>
-      <c r="O295" s="32"/>
-      <c r="P295" s="32"/>
-      <c r="Q295" s="32"/>
-      <c r="R295" s="32"/>
-      <c r="S295" s="32"/>
+      <c r="J295" s="58"/>
+      <c r="K295" s="58"/>
+      <c r="L295" s="58"/>
+      <c r="M295" s="58"/>
+      <c r="N295" s="58"/>
+      <c r="O295" s="58"/>
+      <c r="P295" s="58"/>
+      <c r="Q295" s="58"/>
+      <c r="R295" s="58"/>
+      <c r="S295" s="58"/>
       <c r="T295" t="s">
         <v>76</v>
       </c>
@@ -8251,26 +8251,26 @@
       <c r="I296" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="J296" s="26">
+      <c r="J296" s="49">
         <v>1000</v>
       </c>
-      <c r="K296" s="27"/>
-      <c r="L296" s="26">
+      <c r="K296" s="50"/>
+      <c r="L296" s="49">
         <v>2000</v>
       </c>
-      <c r="M296" s="27"/>
-      <c r="N296" s="26">
+      <c r="M296" s="50"/>
+      <c r="N296" s="49">
         <v>3000</v>
       </c>
-      <c r="O296" s="27"/>
-      <c r="P296" s="26">
+      <c r="O296" s="50"/>
+      <c r="P296" s="49">
         <v>4000</v>
       </c>
-      <c r="Q296" s="27"/>
-      <c r="R296" s="26">
+      <c r="Q296" s="50"/>
+      <c r="R296" s="49">
         <v>5000</v>
       </c>
-      <c r="S296" s="28"/>
+      <c r="S296" s="57"/>
     </row>
     <row r="297" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B297" s="1" t="s">
@@ -8706,29 +8706,29 @@
         <f t="shared" si="10"/>
         <v>3209510</v>
       </c>
-      <c r="S304" s="20">
+      <c r="S304" s="23">
         <f t="shared" si="10"/>
         <v>1943064</v>
       </c>
     </row>
     <row r="305" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B305" s="37"/>
-      <c r="C305" s="30"/>
-      <c r="D305" s="30"/>
-      <c r="E305" s="30"/>
-      <c r="F305" s="30"/>
-      <c r="G305" s="38"/>
-      <c r="I305" s="29"/>
-      <c r="J305" s="30"/>
-      <c r="K305" s="30"/>
-      <c r="L305" s="30"/>
-      <c r="M305" s="30"/>
-      <c r="N305" s="30"/>
-      <c r="O305" s="30"/>
-      <c r="P305" s="30"/>
-      <c r="Q305" s="30"/>
-      <c r="R305" s="30"/>
-      <c r="S305" s="31"/>
+      <c r="B305" s="54"/>
+      <c r="C305" s="38"/>
+      <c r="D305" s="38"/>
+      <c r="E305" s="38"/>
+      <c r="F305" s="38"/>
+      <c r="G305" s="55"/>
+      <c r="I305" s="37"/>
+      <c r="J305" s="38"/>
+      <c r="K305" s="38"/>
+      <c r="L305" s="38"/>
+      <c r="M305" s="38"/>
+      <c r="N305" s="38"/>
+      <c r="O305" s="38"/>
+      <c r="P305" s="38"/>
+      <c r="Q305" s="38"/>
+      <c r="R305" s="38"/>
+      <c r="S305" s="39"/>
     </row>
     <row r="306" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B306" s="11" t="s">
@@ -9102,23 +9102,23 @@
       </c>
     </row>
     <row r="313" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B313" s="37"/>
-      <c r="C313" s="30"/>
-      <c r="D313" s="30"/>
-      <c r="E313" s="30"/>
-      <c r="F313" s="30"/>
-      <c r="G313" s="38"/>
-      <c r="I313" s="36"/>
-      <c r="J313" s="30"/>
-      <c r="K313" s="30"/>
-      <c r="L313" s="30"/>
-      <c r="M313" s="30"/>
-      <c r="N313" s="30"/>
-      <c r="O313" s="30"/>
-      <c r="P313" s="30"/>
-      <c r="Q313" s="30"/>
-      <c r="R313" s="30"/>
-      <c r="S313" s="31"/>
+      <c r="B313" s="54"/>
+      <c r="C313" s="38"/>
+      <c r="D313" s="38"/>
+      <c r="E313" s="38"/>
+      <c r="F313" s="38"/>
+      <c r="G313" s="55"/>
+      <c r="I313" s="59"/>
+      <c r="J313" s="38"/>
+      <c r="K313" s="38"/>
+      <c r="L313" s="38"/>
+      <c r="M313" s="38"/>
+      <c r="N313" s="38"/>
+      <c r="O313" s="38"/>
+      <c r="P313" s="38"/>
+      <c r="Q313" s="38"/>
+      <c r="R313" s="38"/>
+      <c r="S313" s="39"/>
     </row>
     <row r="314" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B314" s="1" t="s">
@@ -9280,23 +9280,23 @@
       </c>
     </row>
     <row r="317" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B317" s="37"/>
-      <c r="C317" s="30"/>
-      <c r="D317" s="30"/>
-      <c r="E317" s="30"/>
-      <c r="F317" s="30"/>
-      <c r="G317" s="38"/>
-      <c r="I317" s="29"/>
-      <c r="J317" s="30"/>
-      <c r="K317" s="30"/>
-      <c r="L317" s="30"/>
-      <c r="M317" s="30"/>
-      <c r="N317" s="30"/>
-      <c r="O317" s="30"/>
-      <c r="P317" s="30"/>
-      <c r="Q317" s="30"/>
-      <c r="R317" s="30"/>
-      <c r="S317" s="31"/>
+      <c r="B317" s="54"/>
+      <c r="C317" s="38"/>
+      <c r="D317" s="38"/>
+      <c r="E317" s="38"/>
+      <c r="F317" s="38"/>
+      <c r="G317" s="55"/>
+      <c r="I317" s="37"/>
+      <c r="J317" s="38"/>
+      <c r="K317" s="38"/>
+      <c r="L317" s="38"/>
+      <c r="M317" s="38"/>
+      <c r="N317" s="38"/>
+      <c r="O317" s="38"/>
+      <c r="P317" s="38"/>
+      <c r="Q317" s="38"/>
+      <c r="R317" s="38"/>
+      <c r="S317" s="39"/>
     </row>
     <row r="318" spans="2:24" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B318" s="9" t="s">
@@ -9467,6 +9467,263 @@
     </row>
   </sheetData>
   <mergeCells count="281">
+    <mergeCell ref="I317:S317"/>
+    <mergeCell ref="I305:S305"/>
+    <mergeCell ref="I267:S267"/>
+    <mergeCell ref="I295:S295"/>
+    <mergeCell ref="I313:S313"/>
+    <mergeCell ref="J208:K208"/>
+    <mergeCell ref="L208:M208"/>
+    <mergeCell ref="N208:O208"/>
+    <mergeCell ref="P208:Q208"/>
+    <mergeCell ref="R208:S208"/>
+    <mergeCell ref="I217:S217"/>
+    <mergeCell ref="I221:S221"/>
+    <mergeCell ref="I227:S227"/>
+    <mergeCell ref="I285:S285"/>
+    <mergeCell ref="J248:K248"/>
+    <mergeCell ref="L248:M248"/>
+    <mergeCell ref="N248:O248"/>
+    <mergeCell ref="I237:S237"/>
+    <mergeCell ref="I241:S241"/>
+    <mergeCell ref="I257:S257"/>
+    <mergeCell ref="I261:S261"/>
+    <mergeCell ref="I289:S289"/>
+    <mergeCell ref="I277:S277"/>
+    <mergeCell ref="L228:M228"/>
+    <mergeCell ref="N228:O228"/>
+    <mergeCell ref="P228:Q228"/>
+    <mergeCell ref="R228:S228"/>
+    <mergeCell ref="P248:Q248"/>
+    <mergeCell ref="R248:S248"/>
+    <mergeCell ref="J268:K268"/>
+    <mergeCell ref="L268:M268"/>
+    <mergeCell ref="N268:O268"/>
+    <mergeCell ref="P268:Q268"/>
+    <mergeCell ref="R268:S268"/>
+    <mergeCell ref="I247:S247"/>
+    <mergeCell ref="B305:G305"/>
+    <mergeCell ref="B277:G277"/>
+    <mergeCell ref="B257:G257"/>
+    <mergeCell ref="J296:K296"/>
+    <mergeCell ref="L296:M296"/>
+    <mergeCell ref="N296:O296"/>
+    <mergeCell ref="P296:Q296"/>
+    <mergeCell ref="R296:S296"/>
+    <mergeCell ref="B237:G237"/>
+    <mergeCell ref="B285:G285"/>
+    <mergeCell ref="B313:G313"/>
+    <mergeCell ref="B317:G317"/>
+    <mergeCell ref="B227:G227"/>
+    <mergeCell ref="B247:G247"/>
+    <mergeCell ref="B267:G267"/>
+    <mergeCell ref="B295:G295"/>
+    <mergeCell ref="B241:G241"/>
+    <mergeCell ref="B261:G261"/>
+    <mergeCell ref="B289:G289"/>
+    <mergeCell ref="J228:K228"/>
+    <mergeCell ref="C189:J189"/>
+    <mergeCell ref="C190:J190"/>
+    <mergeCell ref="B195:J195"/>
+    <mergeCell ref="C196:J196"/>
+    <mergeCell ref="C197:J197"/>
+    <mergeCell ref="C198:J198"/>
+    <mergeCell ref="C175:J175"/>
+    <mergeCell ref="C176:J176"/>
+    <mergeCell ref="B181:J181"/>
+    <mergeCell ref="C182:J182"/>
+    <mergeCell ref="C183:J183"/>
+    <mergeCell ref="C184:J184"/>
+    <mergeCell ref="B187:B188"/>
+    <mergeCell ref="C187:C188"/>
+    <mergeCell ref="D187:D188"/>
+    <mergeCell ref="E187:E188"/>
+    <mergeCell ref="F187:F188"/>
+    <mergeCell ref="G187:G188"/>
+    <mergeCell ref="H187:H188"/>
+    <mergeCell ref="I187:I188"/>
+    <mergeCell ref="J187:J188"/>
+    <mergeCell ref="B204:T204"/>
+    <mergeCell ref="I207:S207"/>
+    <mergeCell ref="C162:J162"/>
+    <mergeCell ref="C163:J163"/>
+    <mergeCell ref="B167:J167"/>
+    <mergeCell ref="C168:J168"/>
+    <mergeCell ref="C169:J169"/>
+    <mergeCell ref="C170:J170"/>
+    <mergeCell ref="B173:B174"/>
+    <mergeCell ref="C173:C174"/>
+    <mergeCell ref="D173:D174"/>
+    <mergeCell ref="E173:E174"/>
+    <mergeCell ref="F173:F174"/>
+    <mergeCell ref="G173:G174"/>
+    <mergeCell ref="H173:H174"/>
+    <mergeCell ref="I173:I174"/>
+    <mergeCell ref="J173:J174"/>
+    <mergeCell ref="C149:J149"/>
+    <mergeCell ref="C150:J150"/>
+    <mergeCell ref="B154:J154"/>
+    <mergeCell ref="C155:J155"/>
+    <mergeCell ref="C156:J156"/>
+    <mergeCell ref="C157:J157"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="C160:C161"/>
+    <mergeCell ref="D160:D161"/>
+    <mergeCell ref="E160:E161"/>
+    <mergeCell ref="F160:F161"/>
+    <mergeCell ref="G160:G161"/>
+    <mergeCell ref="H160:H161"/>
+    <mergeCell ref="I160:I161"/>
+    <mergeCell ref="J160:J161"/>
+    <mergeCell ref="C136:J136"/>
+    <mergeCell ref="C137:J137"/>
+    <mergeCell ref="B141:J141"/>
+    <mergeCell ref="C142:J142"/>
+    <mergeCell ref="C143:J143"/>
+    <mergeCell ref="C144:J144"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="D147:D148"/>
+    <mergeCell ref="E147:E148"/>
+    <mergeCell ref="F147:F148"/>
+    <mergeCell ref="G147:G148"/>
+    <mergeCell ref="H147:H148"/>
+    <mergeCell ref="I147:I148"/>
+    <mergeCell ref="J147:J148"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="C134:C135"/>
+    <mergeCell ref="D134:D135"/>
+    <mergeCell ref="E134:E135"/>
+    <mergeCell ref="F134:F135"/>
+    <mergeCell ref="G134:G135"/>
+    <mergeCell ref="H134:H135"/>
+    <mergeCell ref="I134:I135"/>
+    <mergeCell ref="J134:J135"/>
+    <mergeCell ref="C130:J130"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C122:J122"/>
+    <mergeCell ref="C123:J123"/>
+    <mergeCell ref="B127:J127"/>
+    <mergeCell ref="C128:J128"/>
+    <mergeCell ref="C129:J129"/>
+    <mergeCell ref="C117:J117"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="F120:F121"/>
+    <mergeCell ref="G120:G121"/>
+    <mergeCell ref="H120:H121"/>
+    <mergeCell ref="I120:I121"/>
+    <mergeCell ref="J120:J121"/>
+    <mergeCell ref="C109:J109"/>
+    <mergeCell ref="C110:J110"/>
+    <mergeCell ref="B114:J114"/>
+    <mergeCell ref="C115:J115"/>
+    <mergeCell ref="C116:J116"/>
+    <mergeCell ref="C104:J104"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="H107:H108"/>
+    <mergeCell ref="I107:I108"/>
+    <mergeCell ref="J107:J108"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="B101:J101"/>
+    <mergeCell ref="C102:J102"/>
+    <mergeCell ref="C103:J103"/>
+    <mergeCell ref="C91:J91"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="F94:F95"/>
+    <mergeCell ref="G94:G95"/>
+    <mergeCell ref="H94:H95"/>
+    <mergeCell ref="I94:I95"/>
+    <mergeCell ref="J94:J95"/>
+    <mergeCell ref="B88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C90:J90"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="J81:J82"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="B61:J61"/>
+    <mergeCell ref="B48:J48"/>
+    <mergeCell ref="B35:J35"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C64:J64"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C62:J62"/>
     <mergeCell ref="C63:J63"/>
     <mergeCell ref="C30:J30"/>
     <mergeCell ref="C31:J31"/>
@@ -9491,263 +9748,6 @@
     <mergeCell ref="F68:F69"/>
     <mergeCell ref="C83:J83"/>
     <mergeCell ref="C84:J84"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C64:J64"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="B61:J61"/>
-    <mergeCell ref="B48:J48"/>
-    <mergeCell ref="B35:J35"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="B9:J9"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="B88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C90:J90"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="J81:J82"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="B101:J101"/>
-    <mergeCell ref="C102:J102"/>
-    <mergeCell ref="C103:J103"/>
-    <mergeCell ref="C91:J91"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="F94:F95"/>
-    <mergeCell ref="G94:G95"/>
-    <mergeCell ref="H94:H95"/>
-    <mergeCell ref="I94:I95"/>
-    <mergeCell ref="J94:J95"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="H107:H108"/>
-    <mergeCell ref="I107:I108"/>
-    <mergeCell ref="J107:J108"/>
-    <mergeCell ref="C130:J130"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C122:J122"/>
-    <mergeCell ref="C123:J123"/>
-    <mergeCell ref="B127:J127"/>
-    <mergeCell ref="C128:J128"/>
-    <mergeCell ref="C129:J129"/>
-    <mergeCell ref="C117:J117"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="D120:D121"/>
-    <mergeCell ref="E120:E121"/>
-    <mergeCell ref="F120:F121"/>
-    <mergeCell ref="G120:G121"/>
-    <mergeCell ref="H120:H121"/>
-    <mergeCell ref="I120:I121"/>
-    <mergeCell ref="J120:J121"/>
-    <mergeCell ref="C109:J109"/>
-    <mergeCell ref="C110:J110"/>
-    <mergeCell ref="B114:J114"/>
-    <mergeCell ref="C115:J115"/>
-    <mergeCell ref="C116:J116"/>
-    <mergeCell ref="C104:J104"/>
-    <mergeCell ref="B134:B135"/>
-    <mergeCell ref="C134:C135"/>
-    <mergeCell ref="D134:D135"/>
-    <mergeCell ref="E134:E135"/>
-    <mergeCell ref="F134:F135"/>
-    <mergeCell ref="G134:G135"/>
-    <mergeCell ref="H134:H135"/>
-    <mergeCell ref="I134:I135"/>
-    <mergeCell ref="J134:J135"/>
-    <mergeCell ref="C136:J136"/>
-    <mergeCell ref="C137:J137"/>
-    <mergeCell ref="B141:J141"/>
-    <mergeCell ref="C142:J142"/>
-    <mergeCell ref="C143:J143"/>
-    <mergeCell ref="C144:J144"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="D147:D148"/>
-    <mergeCell ref="E147:E148"/>
-    <mergeCell ref="F147:F148"/>
-    <mergeCell ref="G147:G148"/>
-    <mergeCell ref="H147:H148"/>
-    <mergeCell ref="I147:I148"/>
-    <mergeCell ref="J147:J148"/>
-    <mergeCell ref="C149:J149"/>
-    <mergeCell ref="C150:J150"/>
-    <mergeCell ref="B154:J154"/>
-    <mergeCell ref="C155:J155"/>
-    <mergeCell ref="C156:J156"/>
-    <mergeCell ref="C157:J157"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="C160:C161"/>
-    <mergeCell ref="D160:D161"/>
-    <mergeCell ref="E160:E161"/>
-    <mergeCell ref="F160:F161"/>
-    <mergeCell ref="G160:G161"/>
-    <mergeCell ref="H160:H161"/>
-    <mergeCell ref="I160:I161"/>
-    <mergeCell ref="J160:J161"/>
-    <mergeCell ref="C162:J162"/>
-    <mergeCell ref="C163:J163"/>
-    <mergeCell ref="B167:J167"/>
-    <mergeCell ref="C168:J168"/>
-    <mergeCell ref="C169:J169"/>
-    <mergeCell ref="C170:J170"/>
-    <mergeCell ref="B173:B174"/>
-    <mergeCell ref="C173:C174"/>
-    <mergeCell ref="D173:D174"/>
-    <mergeCell ref="E173:E174"/>
-    <mergeCell ref="F173:F174"/>
-    <mergeCell ref="G173:G174"/>
-    <mergeCell ref="H173:H174"/>
-    <mergeCell ref="I173:I174"/>
-    <mergeCell ref="J173:J174"/>
-    <mergeCell ref="J228:K228"/>
-    <mergeCell ref="C189:J189"/>
-    <mergeCell ref="C190:J190"/>
-    <mergeCell ref="B195:J195"/>
-    <mergeCell ref="C196:J196"/>
-    <mergeCell ref="C197:J197"/>
-    <mergeCell ref="C198:J198"/>
-    <mergeCell ref="C175:J175"/>
-    <mergeCell ref="C176:J176"/>
-    <mergeCell ref="B181:J181"/>
-    <mergeCell ref="C182:J182"/>
-    <mergeCell ref="C183:J183"/>
-    <mergeCell ref="C184:J184"/>
-    <mergeCell ref="B187:B188"/>
-    <mergeCell ref="C187:C188"/>
-    <mergeCell ref="D187:D188"/>
-    <mergeCell ref="E187:E188"/>
-    <mergeCell ref="F187:F188"/>
-    <mergeCell ref="G187:G188"/>
-    <mergeCell ref="H187:H188"/>
-    <mergeCell ref="I187:I188"/>
-    <mergeCell ref="J187:J188"/>
-    <mergeCell ref="B204:T204"/>
-    <mergeCell ref="B237:G237"/>
-    <mergeCell ref="B285:G285"/>
-    <mergeCell ref="B313:G313"/>
-    <mergeCell ref="B317:G317"/>
-    <mergeCell ref="B227:G227"/>
-    <mergeCell ref="B247:G247"/>
-    <mergeCell ref="B267:G267"/>
-    <mergeCell ref="B295:G295"/>
-    <mergeCell ref="B241:G241"/>
-    <mergeCell ref="B261:G261"/>
-    <mergeCell ref="B289:G289"/>
-    <mergeCell ref="P248:Q248"/>
-    <mergeCell ref="R248:S248"/>
-    <mergeCell ref="J268:K268"/>
-    <mergeCell ref="L268:M268"/>
-    <mergeCell ref="N268:O268"/>
-    <mergeCell ref="P268:Q268"/>
-    <mergeCell ref="R268:S268"/>
-    <mergeCell ref="I247:S247"/>
-    <mergeCell ref="B305:G305"/>
-    <mergeCell ref="B277:G277"/>
-    <mergeCell ref="B257:G257"/>
-    <mergeCell ref="I237:S237"/>
-    <mergeCell ref="I241:S241"/>
-    <mergeCell ref="I257:S257"/>
-    <mergeCell ref="I261:S261"/>
-    <mergeCell ref="I289:S289"/>
-    <mergeCell ref="I277:S277"/>
-    <mergeCell ref="L228:M228"/>
-    <mergeCell ref="N228:O228"/>
-    <mergeCell ref="P228:Q228"/>
-    <mergeCell ref="R228:S228"/>
-    <mergeCell ref="I207:S207"/>
-    <mergeCell ref="J208:K208"/>
-    <mergeCell ref="L208:M208"/>
-    <mergeCell ref="N208:O208"/>
-    <mergeCell ref="P208:Q208"/>
-    <mergeCell ref="R208:S208"/>
-    <mergeCell ref="I217:S217"/>
-    <mergeCell ref="I221:S221"/>
-    <mergeCell ref="I227:S227"/>
-    <mergeCell ref="I285:S285"/>
-    <mergeCell ref="J248:K248"/>
-    <mergeCell ref="L248:M248"/>
-    <mergeCell ref="N248:O248"/>
-    <mergeCell ref="J296:K296"/>
-    <mergeCell ref="L296:M296"/>
-    <mergeCell ref="N296:O296"/>
-    <mergeCell ref="P296:Q296"/>
-    <mergeCell ref="R296:S296"/>
-    <mergeCell ref="I317:S317"/>
-    <mergeCell ref="I305:S305"/>
-    <mergeCell ref="I267:S267"/>
-    <mergeCell ref="I295:S295"/>
-    <mergeCell ref="I313:S313"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
